--- a/data/hake_input_yr24_age1srv.xlsx
+++ b/data/hake_input_yr24_age1srv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2DDD5C-A55C-6446-A89C-D04E40380064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3D3C9-A7C6-804B-B1D4-3E1C21C51EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="6100" windowWidth="34420" windowHeight="33040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="5540" windowWidth="34420" windowHeight="33040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1613,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2562,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
@@ -27519,10 +27519,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27535,9 +27535,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1980</v>
+        <v>1966</v>
       </c>
       <c r="B2" s="3">
         <v>7.7910786500000002</v>
@@ -27545,345 +27545,457 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1981</v>
+        <v>1967</v>
       </c>
       <c r="B3" s="3">
-        <v>7.9302527500000002</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1982</v>
+        <v>1968</v>
       </c>
       <c r="B4" s="3">
-        <v>7.7663626399999997</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1983</v>
+        <v>1969</v>
       </c>
       <c r="B5" s="3">
-        <v>8.3381739100000001</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1984</v>
+        <v>1970</v>
       </c>
       <c r="B6" s="3">
-        <v>7.7257362599999997</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1985</v>
+        <v>1971</v>
       </c>
       <c r="B7" s="3">
-        <v>7.5189010999999999</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1986</v>
+        <v>1972</v>
       </c>
       <c r="B8" s="3">
-        <v>7.7015434799999998</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1987</v>
+        <v>1973</v>
       </c>
       <c r="B9" s="3">
-        <v>7.9614065900000002</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1988</v>
+        <v>1974</v>
       </c>
       <c r="B10" s="3">
-        <v>7.54096703</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1989</v>
+        <v>1975</v>
       </c>
       <c r="B11" s="3">
-        <v>7.4454456499999999</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1990</v>
+        <v>1976</v>
       </c>
       <c r="B12" s="3">
-        <v>7.6304835200000003</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1991</v>
+        <v>1977</v>
       </c>
       <c r="B13" s="3">
-        <v>7.3921977999999999</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1992</v>
+        <v>1978</v>
       </c>
       <c r="B14" s="3">
-        <v>8.0989565199999998</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1993</v>
+        <v>1979</v>
       </c>
       <c r="B15" s="3">
-        <v>7.6743296699999997</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1994</v>
+        <v>1980</v>
       </c>
       <c r="B16" s="3">
-        <v>7.6574285700000004</v>
+        <v>7.7910786500000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1995</v>
+        <v>1981</v>
       </c>
       <c r="B17" s="3">
-        <v>7.7381758200000004</v>
+        <v>7.9302527500000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="B18" s="3">
-        <v>7.7203152199999998</v>
+        <v>7.7663626399999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1997</v>
+        <v>1983</v>
       </c>
       <c r="B19" s="3">
-        <v>8.1091318700000006</v>
+        <v>8.3381739100000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="B20" s="3">
-        <v>8.1201428599999996</v>
+        <v>7.7257362599999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="B21" s="3">
-        <v>7.33834783</v>
+        <v>7.5189010999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="B22" s="3">
-        <v>7.4241428599999999</v>
+        <v>7.7015434799999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2001</v>
+        <v>1987</v>
       </c>
       <c r="B23" s="3">
-        <v>7.0958131900000003</v>
+        <v>7.9614065900000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="B24" s="3">
-        <v>7.2639239099999999</v>
+        <v>7.54096703</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="B25" s="3">
-        <v>7.5445054899999997</v>
+        <v>7.4454456499999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2004</v>
+        <v>1990</v>
       </c>
       <c r="B26" s="3">
-        <v>7.64548352</v>
+        <v>7.6304835200000003</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="B27" s="3">
-        <v>7.8828369599999997</v>
+        <v>7.3921977999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="B28" s="3">
-        <v>7.7766813199999998</v>
+        <v>8.0989565199999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="B29" s="3">
-        <v>7.4721978</v>
+        <v>7.6743296699999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="B30" s="3">
-        <v>7.1410434800000004</v>
+        <v>7.6574285700000004</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="B31" s="3">
-        <v>7.20131868</v>
+        <v>7.7381758200000004</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="B32" s="3">
-        <v>7.4271111100000002</v>
+        <v>7.7203152199999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="B33" s="3">
-        <v>7.4726153799999997</v>
+        <v>8.1091318700000006</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="B34" s="3">
-        <v>7.2943695699999997</v>
+        <v>8.1201428599999996</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="B35" s="3">
-        <v>7.0181098899999999</v>
+        <v>7.33834783</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="B36" s="3">
-        <v>7.4749340699999998</v>
+        <v>7.4241428599999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="B37" s="3">
-        <v>7.5457142900000003</v>
+        <v>7.0958131900000003</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="B38" s="3">
-        <v>7.3323152199999999</v>
+        <v>7.2639239099999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="B39" s="3">
-        <v>7.3101318700000002</v>
+        <v>7.5445054899999997</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B40" s="3">
-        <v>7.4305384600000002</v>
+        <v>7.64548352</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="B41" s="3">
-        <v>7.3799565200000004</v>
+        <v>7.8828369599999997</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="B42" s="3">
-        <v>7.3799565200000004</v>
+        <v>7.7766813199999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="B43" s="3">
-        <v>7.3799565200000004</v>
+        <v>7.4721978</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="B44" s="3">
-        <v>7.3799565200000004</v>
+        <v>7.1410434800000004</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>2009</v>
+      </c>
+      <c r="B45" s="3">
+        <v>7.20131868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2010</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7.4271111100000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2011</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7.4726153799999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2012</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7.2943695699999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2013</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7.0181098899999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2014</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7.4749340699999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2015</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7.5457142900000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2016</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7.3323152199999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7.3101318700000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7.4305384600000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55" s="3">
+        <v>7.3799565200000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7.3799565200000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="3">
+        <v>7.3799565200000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="3">
+        <v>7.3799565200000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>2023</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B59" s="3">
         <v>7.3799565200000004</v>
       </c>
     </row>
@@ -32108,8 +32220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37297,7 +37409,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="D2" sqref="D2:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/hake_input_yr24_age1srv.xlsx
+++ b/data/hake_input_yr24_age1srv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3D3C9-A7C6-804B-B1D4-3E1C21C51EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF575DA-9616-B947-829E-2553BC0363AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="5540" windowWidth="34420" windowHeight="33040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43460" yWindow="17140" windowWidth="30260" windowHeight="21340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4035,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y295"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P298" sqref="P298"/>
     </sheetView>
   </sheetViews>
@@ -32220,8 +32220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32344,7 +32344,7 @@
         <v>61</v>
       </c>
       <c r="B15">
-        <v>1.24</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -35345,8 +35345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35489,7 +35489,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -35575,7 +35575,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -35601,7 +35601,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -45340,7 +45340,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y110"/>
+      <selection activeCell="A2" sqref="A2:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/hake_input_yr24_age1srv.xlsx
+++ b/data/hake_input_yr24_age1srv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF575DA-9616-B947-829E-2553BC0363AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E92AB-9DDD-A949-B8DD-D9866576688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43460" yWindow="17140" windowWidth="30260" windowHeight="21340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="8000" windowWidth="54680" windowHeight="35200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4035,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y295"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P298" sqref="P298"/>
+    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE178" sqref="AE178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15457,64 +15457,64 @@
         <v>1975</v>
       </c>
       <c r="F149">
-        <v>1.5858565105263201E-3</v>
+        <v>6.3441649999999997E-3</v>
       </c>
       <c r="G149">
-        <v>3.9686836105263197E-2</v>
+        <v>0.11256462</v>
       </c>
       <c r="H149">
-        <v>0.21494590842105299</v>
+        <v>0.3362137</v>
       </c>
       <c r="I149">
-        <v>0.47807245605263199</v>
+        <v>0.54395230000000006</v>
       </c>
       <c r="J149">
-        <v>0.65179900673684199</v>
+        <v>0.67452129999999999</v>
       </c>
       <c r="K149">
-        <v>0.74843338357894695</v>
+        <v>0.75712710000000005</v>
       </c>
       <c r="L149">
-        <v>0.87145749031579001</v>
+        <v>0.87402469999999999</v>
       </c>
       <c r="M149">
-        <v>0.94536761094736799</v>
+        <v>0.99283719999999998</v>
       </c>
       <c r="N149">
-        <v>1.0632652920000001</v>
+        <v>1.0633846</v>
       </c>
       <c r="O149">
-        <v>1.16296758947368</v>
+        <v>1.1631762000000001</v>
       </c>
       <c r="P149">
-        <v>1.3580419646842099</v>
+        <v>1.3582460999999999</v>
       </c>
       <c r="Q149">
-        <v>1.5608252804210501</v>
+        <v>1.5608234999999999</v>
       </c>
       <c r="R149">
-        <v>1.57061156178947</v>
+        <v>1.5740794</v>
       </c>
       <c r="S149">
-        <v>1.8421277490000001</v>
+        <v>1.8565604</v>
       </c>
       <c r="T149">
-        <v>1.0520702532631601</v>
+        <v>1.0749333999999999</v>
       </c>
       <c r="U149">
-        <v>1.0520702532631601</v>
+        <v>1.0749333999999999</v>
       </c>
       <c r="V149">
-        <v>1.0520702532631601</v>
+        <v>1.0749333999999999</v>
       </c>
       <c r="W149">
-        <v>1.0520702532631601</v>
+        <v>1.0749333999999999</v>
       </c>
       <c r="X149">
-        <v>1.0520702532631601</v>
+        <v>1.0749333999999999</v>
       </c>
       <c r="Y149">
-        <v>1.0520702532631601</v>
+        <v>1.0749333999999999</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
@@ -15534,64 +15534,64 @@
         <v>1976</v>
       </c>
       <c r="F150">
-        <v>1.9115208315789499E-3</v>
+        <v>7.646974E-3</v>
       </c>
       <c r="G150">
-        <v>3.9099114947368403E-2</v>
+        <v>0.11089765</v>
       </c>
       <c r="H150">
-        <v>0.25925024642105299</v>
+        <v>0.40551350000000003</v>
       </c>
       <c r="I150">
-        <v>0.48668990526315797</v>
+        <v>0.55375730000000001</v>
       </c>
       <c r="J150">
-        <v>0.705135786947368</v>
+        <v>0.72971739999999996</v>
       </c>
       <c r="K150">
-        <v>0.81721421052631604</v>
+        <v>0.82670690000000002</v>
       </c>
       <c r="L150">
-        <v>0.91238344189473697</v>
+        <v>0.91507119999999997</v>
       </c>
       <c r="M150">
-        <v>1.0394708707368401</v>
+        <v>1.0916656</v>
       </c>
       <c r="N150">
-        <v>1.21416692826316</v>
+        <v>1.2143031</v>
       </c>
       <c r="O150">
-        <v>1.25638509647368</v>
+        <v>1.2566105000000001</v>
       </c>
       <c r="P150">
-        <v>1.4032079805789499</v>
+        <v>1.4034188999999999</v>
       </c>
       <c r="Q150">
-        <v>1.64431981278947</v>
+        <v>1.6443179000000001</v>
       </c>
       <c r="R150">
-        <v>1.80193674705263</v>
+        <v>1.8059152999999999</v>
       </c>
       <c r="S150">
-        <v>1.8180695609999999</v>
+        <v>1.8323137</v>
       </c>
       <c r="T150">
-        <v>2.2386874573684201</v>
+        <v>2.2873378</v>
       </c>
       <c r="U150">
-        <v>2.2386874573684201</v>
+        <v>2.2873378</v>
       </c>
       <c r="V150">
-        <v>2.2386874573684201</v>
+        <v>2.2873378</v>
       </c>
       <c r="W150">
-        <v>2.2386874573684201</v>
+        <v>2.2873378</v>
       </c>
       <c r="X150">
-        <v>2.2386874573684201</v>
+        <v>2.2873378</v>
       </c>
       <c r="Y150">
-        <v>2.2386874573684201</v>
+        <v>2.2873378</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
@@ -15611,64 +15611,64 @@
         <v>1977</v>
       </c>
       <c r="F151">
-        <v>1.4452827631578999E-3</v>
+        <v>5.7818039999999998E-3</v>
       </c>
       <c r="G151">
-        <v>4.0878150105263203E-2</v>
+        <v>0.11594357</v>
       </c>
       <c r="H151">
-        <v>0.22153829926315799</v>
+        <v>0.34652529999999998</v>
       </c>
       <c r="I151">
-        <v>0.50915665552631595</v>
+        <v>0.57931999999999995</v>
       </c>
       <c r="J151">
-        <v>0.62264494273684201</v>
+        <v>0.64435089999999995</v>
       </c>
       <c r="K151">
-        <v>0.76683888757894703</v>
+        <v>0.77574639999999995</v>
       </c>
       <c r="L151">
-        <v>0.86411045600000003</v>
+        <v>0.86665599999999998</v>
       </c>
       <c r="M151">
-        <v>0.94395794189473703</v>
+        <v>0.99135669999999998</v>
       </c>
       <c r="N151">
-        <v>1.1579748186315799</v>
+        <v>1.1581047</v>
       </c>
       <c r="O151">
-        <v>1.2444248946315799</v>
+        <v>1.2446482000000001</v>
       </c>
       <c r="P151">
-        <v>1.3148806931052599</v>
+        <v>1.3150782999999999</v>
       </c>
       <c r="Q151">
-        <v>1.4736836685789501</v>
+        <v>1.4736819999999999</v>
       </c>
       <c r="R151">
-        <v>1.64657182736842</v>
+        <v>1.6502074</v>
       </c>
       <c r="S151">
-        <v>1.8092157929999999</v>
+        <v>1.8233906</v>
       </c>
       <c r="T151">
-        <v>1.9164317435263201</v>
+        <v>1.9580789000000001</v>
       </c>
       <c r="U151">
-        <v>1.9164317435263201</v>
+        <v>1.9580789000000001</v>
       </c>
       <c r="V151">
-        <v>1.9164317435263201</v>
+        <v>1.9580789000000001</v>
       </c>
       <c r="W151">
-        <v>1.9164317435263201</v>
+        <v>1.9580789000000001</v>
       </c>
       <c r="X151">
-        <v>1.9164317435263201</v>
+        <v>1.9580789000000001</v>
       </c>
       <c r="Y151">
-        <v>1.9164317435263201</v>
+        <v>1.9580789000000001</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
@@ -15688,64 +15688,64 @@
         <v>1978</v>
       </c>
       <c r="F152">
-        <v>1.89694299473684E-3</v>
+        <v>7.588656E-3</v>
       </c>
       <c r="G152">
-        <v>2.8487549578947401E-2</v>
+        <v>8.0799839999999998E-2</v>
       </c>
       <c r="H152">
-        <v>0.21348301168421099</v>
+        <v>0.33392539999999998</v>
       </c>
       <c r="I152">
-        <v>0.40102480578947403</v>
+        <v>0.4562872</v>
       </c>
       <c r="J152">
-        <v>0.60038498821052599</v>
+        <v>0.6213149</v>
       </c>
       <c r="K152">
-        <v>0.62411130189473696</v>
+        <v>0.6313609</v>
       </c>
       <c r="L152">
-        <v>0.747356231368421</v>
+        <v>0.7495579</v>
       </c>
       <c r="M152">
-        <v>0.82401417515789499</v>
+        <v>0.86539029999999995</v>
       </c>
       <c r="N152">
-        <v>0.96923630699999996</v>
+        <v>0.96934500000000001</v>
       </c>
       <c r="O152">
-        <v>1.09390505731579</v>
+        <v>1.0941012999999999</v>
       </c>
       <c r="P152">
-        <v>1.20039028294737</v>
+        <v>1.2005707000000001</v>
       </c>
       <c r="Q152">
-        <v>1.2727960545789501</v>
+        <v>1.2727946000000001</v>
       </c>
       <c r="R152">
-        <v>1.36015646221053</v>
+        <v>1.3631595999999999</v>
       </c>
       <c r="S152">
-        <v>1.5237781020000001</v>
+        <v>1.5357166</v>
       </c>
       <c r="T152">
-        <v>1.7577757072631599</v>
+        <v>1.7959750000000001</v>
       </c>
       <c r="U152">
-        <v>1.7577757072631599</v>
+        <v>1.7959750000000001</v>
       </c>
       <c r="V152">
-        <v>1.7577757072631599</v>
+        <v>1.7959750000000001</v>
       </c>
       <c r="W152">
-        <v>1.7577757072631599</v>
+        <v>1.7959750000000001</v>
       </c>
       <c r="X152">
-        <v>1.7577757072631599</v>
+        <v>1.7959750000000001</v>
       </c>
       <c r="Y152">
-        <v>1.7577757072631599</v>
+        <v>1.7959750000000001</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
@@ -15765,64 +15765,64 @@
         <v>1979</v>
       </c>
       <c r="F153">
-        <v>1.4826669E-3</v>
+        <v>5.9313580000000003E-3</v>
       </c>
       <c r="G153">
-        <v>4.5216290947368398E-2</v>
+        <v>0.12824793000000001</v>
       </c>
       <c r="H153">
-        <v>0.179914255473684</v>
+        <v>0.2814179</v>
       </c>
       <c r="I153">
-        <v>0.467330382894737</v>
+        <v>0.53172989999999998</v>
       </c>
       <c r="J153">
-        <v>0.57185763536842105</v>
+        <v>0.59179309999999996</v>
       </c>
       <c r="K153">
-        <v>0.727762464</v>
+        <v>0.73621610000000004</v>
       </c>
       <c r="L153">
-        <v>0.73556976842105304</v>
+        <v>0.73773670000000002</v>
       </c>
       <c r="M153">
-        <v>0.86184942989473701</v>
+        <v>0.90512530000000002</v>
       </c>
       <c r="N153">
-        <v>1.02317520315789</v>
+        <v>1.02329</v>
       </c>
       <c r="O153">
-        <v>1.1072569263157901</v>
+        <v>1.1074556</v>
       </c>
       <c r="P153">
-        <v>1.2760617348947401</v>
+        <v>1.2762534999999999</v>
       </c>
       <c r="Q153">
-        <v>1.40518404</v>
+        <v>1.4051823999999999</v>
       </c>
       <c r="R153">
-        <v>1.4206322809473699</v>
+        <v>1.4237690000000001</v>
       </c>
       <c r="S153">
-        <v>1.5221876670000001</v>
+        <v>1.5341137</v>
       </c>
       <c r="T153">
-        <v>1.79032985994737</v>
+        <v>1.8292366</v>
       </c>
       <c r="U153">
-        <v>1.79032985994737</v>
+        <v>1.8292366</v>
       </c>
       <c r="V153">
-        <v>1.79032985994737</v>
+        <v>1.8292366</v>
       </c>
       <c r="W153">
-        <v>1.79032985994737</v>
+        <v>1.8292366</v>
       </c>
       <c r="X153">
-        <v>1.79032985994737</v>
+        <v>1.8292366</v>
       </c>
       <c r="Y153">
-        <v>1.79032985994737</v>
+        <v>1.8292366</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
@@ -15842,64 +15842,64 @@
         <v>1980</v>
       </c>
       <c r="F154">
-        <v>1.3986752999999999E-3</v>
+        <v>5.595353E-3</v>
       </c>
       <c r="G154">
-        <v>2.6915963263157899E-2</v>
+        <v>7.6342320000000005E-2</v>
       </c>
       <c r="H154">
-        <v>0.217485895368421</v>
+        <v>0.34018660000000001</v>
       </c>
       <c r="I154">
-        <v>0.299952258157895</v>
+        <v>0.3412866</v>
       </c>
       <c r="J154">
-        <v>0.50753558442105295</v>
+        <v>0.52522869999999999</v>
       </c>
       <c r="K154">
-        <v>0.52792656252631598</v>
+        <v>0.5340589</v>
       </c>
       <c r="L154">
-        <v>0.65324675726315795</v>
+        <v>0.65517119999999995</v>
       </c>
       <c r="M154">
-        <v>0.64603103915789495</v>
+        <v>0.67847009999999996</v>
       </c>
       <c r="N154">
-        <v>0.81502791205263103</v>
+        <v>0.81511929999999999</v>
       </c>
       <c r="O154">
-        <v>0.890214319421052</v>
+        <v>0.890374</v>
       </c>
       <c r="P154">
-        <v>0.98370818621052603</v>
+        <v>0.98385599999999995</v>
       </c>
       <c r="Q154">
-        <v>1.13764882215789</v>
+        <v>1.1376474999999999</v>
       </c>
       <c r="R154">
-        <v>1.1944881825263201</v>
+        <v>1.1971255999999999</v>
       </c>
       <c r="S154">
-        <v>1.210840092</v>
+        <v>1.2203268</v>
       </c>
       <c r="T154">
-        <v>1.3620885227894699</v>
+        <v>1.3916888999999999</v>
       </c>
       <c r="U154">
-        <v>1.3620885227894699</v>
+        <v>1.3916888999999999</v>
       </c>
       <c r="V154">
-        <v>1.3620885227894699</v>
+        <v>1.3916888999999999</v>
       </c>
       <c r="W154">
-        <v>1.3620885227894699</v>
+        <v>1.3916888999999999</v>
       </c>
       <c r="X154">
-        <v>1.3620885227894699</v>
+        <v>1.3916888999999999</v>
       </c>
       <c r="Y154">
-        <v>1.3620885227894699</v>
+        <v>1.3916888999999999</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
@@ -15919,64 +15919,64 @@
         <v>1981</v>
       </c>
       <c r="F155">
-        <v>1.55656501578947E-3</v>
+        <v>6.226985E-3</v>
       </c>
       <c r="G155">
-        <v>3.0022731684210501E-2</v>
+        <v>8.5154110000000005E-2</v>
       </c>
       <c r="H155">
-        <v>0.15307809484210499</v>
+        <v>0.2394414</v>
       </c>
       <c r="I155">
-        <v>0.42873054342105199</v>
+        <v>0.48781089999999999</v>
       </c>
       <c r="J155">
-        <v>0.385177901052631</v>
+        <v>0.3986055</v>
       </c>
       <c r="K155">
-        <v>0.55401160168421004</v>
+        <v>0.56044689999999997</v>
       </c>
       <c r="L155">
-        <v>0.56030942694736896</v>
+        <v>0.56196000000000002</v>
       </c>
       <c r="M155">
-        <v>0.67838082189473703</v>
+        <v>0.71244419999999997</v>
       </c>
       <c r="N155">
-        <v>0.72237260368420997</v>
+        <v>0.72245360000000003</v>
       </c>
       <c r="O155">
-        <v>0.83846287136842101</v>
+        <v>0.83861330000000001</v>
       </c>
       <c r="P155">
-        <v>0.93514555894736795</v>
+        <v>0.93528610000000001</v>
       </c>
       <c r="Q155">
-        <v>1.0369781346315801</v>
+        <v>1.0369769</v>
       </c>
       <c r="R155">
-        <v>1.14346711210526</v>
+        <v>1.1459918</v>
       </c>
       <c r="S155">
-        <v>1.20379842</v>
+        <v>1.2132299</v>
       </c>
       <c r="T155">
-        <v>1.28112265310526</v>
+        <v>1.3089634999999999</v>
       </c>
       <c r="U155">
-        <v>1.28112265310526</v>
+        <v>1.3089634999999999</v>
       </c>
       <c r="V155">
-        <v>1.28112265310526</v>
+        <v>1.3089634999999999</v>
       </c>
       <c r="W155">
-        <v>1.28112265310526</v>
+        <v>1.3089634999999999</v>
       </c>
       <c r="X155">
-        <v>1.28112265310526</v>
+        <v>1.3089634999999999</v>
       </c>
       <c r="Y155">
-        <v>1.28112265310526</v>
+        <v>1.3089634999999999</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
@@ -15996,64 +15996,64 @@
         <v>1982</v>
       </c>
       <c r="F156">
-        <v>1.0589922315789499E-3</v>
+        <v>4.2364619999999999E-3</v>
       </c>
       <c r="G156">
-        <v>3.0618436947368401E-2</v>
+        <v>8.6843719999999999E-2</v>
       </c>
       <c r="H156">
-        <v>0.156471613368421</v>
+        <v>0.24474940000000001</v>
       </c>
       <c r="I156">
-        <v>0.27653421631578901</v>
+        <v>0.31464150000000002</v>
       </c>
       <c r="J156">
-        <v>0.50451739242105198</v>
+        <v>0.52210529999999999</v>
       </c>
       <c r="K156">
-        <v>0.38529760168421001</v>
+        <v>0.38977319999999999</v>
       </c>
       <c r="L156">
-        <v>0.53883502778947401</v>
+        <v>0.54042239999999997</v>
       </c>
       <c r="M156">
-        <v>0.53322040336842103</v>
+        <v>0.55999489999999996</v>
       </c>
       <c r="N156">
-        <v>0.69512675115789402</v>
+        <v>0.69520470000000001</v>
       </c>
       <c r="O156">
-        <v>0.68101268352631605</v>
+        <v>0.68113489999999999</v>
       </c>
       <c r="P156">
-        <v>0.80714396368421004</v>
+        <v>0.80726529999999996</v>
       </c>
       <c r="Q156">
-        <v>0.903368692421052</v>
+        <v>0.9033677</v>
       </c>
       <c r="R156">
-        <v>0.95514120947368397</v>
+        <v>0.95725009999999999</v>
       </c>
       <c r="S156">
-        <v>1.0560344850000001</v>
+        <v>1.0643083</v>
       </c>
       <c r="T156">
-        <v>1.1671863752631599</v>
+        <v>1.1925512</v>
       </c>
       <c r="U156">
-        <v>1.1671863752631599</v>
+        <v>1.1925512</v>
       </c>
       <c r="V156">
-        <v>1.1671863752631599</v>
+        <v>1.1925512</v>
       </c>
       <c r="W156">
-        <v>1.1671863752631599</v>
+        <v>1.1925512</v>
       </c>
       <c r="X156">
-        <v>1.1671863752631599</v>
+        <v>1.1925512</v>
       </c>
       <c r="Y156">
-        <v>1.1671863752631599</v>
+        <v>1.1925512</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
@@ -16073,64 +16073,64 @@
         <v>1983</v>
       </c>
       <c r="F157">
-        <v>1.04636122105263E-3</v>
+        <v>4.1859319999999998E-3</v>
       </c>
       <c r="G157">
-        <v>2.2979744210526301E-2</v>
+        <v>6.5177940000000004E-2</v>
       </c>
       <c r="H157">
-        <v>0.176037479157895</v>
+        <v>0.27535389999999998</v>
       </c>
       <c r="I157">
-        <v>0.31182300368421001</v>
+        <v>0.35479319999999998</v>
       </c>
       <c r="J157">
-        <v>0.35898573305263098</v>
+        <v>0.37150030000000001</v>
       </c>
       <c r="K157">
-        <v>0.55673398231578897</v>
+        <v>0.5632009</v>
       </c>
       <c r="L157">
-        <v>0.41339941094736898</v>
+        <v>0.41461720000000002</v>
       </c>
       <c r="M157">
-        <v>0.56568066442105303</v>
+        <v>0.59408510000000003</v>
       </c>
       <c r="N157">
-        <v>0.60274529857894699</v>
+        <v>0.60281289999999998</v>
       </c>
       <c r="O157">
-        <v>0.72292711168420998</v>
+        <v>0.72305680000000006</v>
       </c>
       <c r="P157">
-        <v>0.72320096747368401</v>
+        <v>0.72330970000000006</v>
       </c>
       <c r="Q157">
-        <v>0.86014855184210504</v>
+        <v>0.86014760000000001</v>
       </c>
       <c r="R157">
-        <v>0.91790905715789495</v>
+        <v>0.91993579999999997</v>
       </c>
       <c r="S157">
-        <v>0.97310258099999902</v>
+        <v>0.9807266</v>
       </c>
       <c r="T157">
-        <v>1.12953887705263</v>
+        <v>1.1540855999999999</v>
       </c>
       <c r="U157">
-        <v>1.12953887705263</v>
+        <v>1.1540855999999999</v>
       </c>
       <c r="V157">
-        <v>1.12953887705263</v>
+        <v>1.1540855999999999</v>
       </c>
       <c r="W157">
-        <v>1.12953887705263</v>
+        <v>1.1540855999999999</v>
       </c>
       <c r="X157">
-        <v>1.12953887705263</v>
+        <v>1.1540855999999999</v>
       </c>
       <c r="Y157">
-        <v>1.12953887705263</v>
+        <v>1.1540855999999999</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
@@ -16150,64 +16150,64 @@
         <v>1984</v>
       </c>
       <c r="F158">
-        <v>1.1079341842105299E-3</v>
+        <v>4.4322529999999997E-3</v>
       </c>
       <c r="G158">
-        <v>2.3675312842105299E-2</v>
+        <v>6.7150790000000002E-2</v>
       </c>
       <c r="H158">
-        <v>0.13776184231579</v>
+        <v>0.21548400000000001</v>
       </c>
       <c r="I158">
-        <v>0.36579629263157898</v>
+        <v>0.41620410000000002</v>
       </c>
       <c r="J158">
-        <v>0.422083322105263</v>
+        <v>0.43679750000000001</v>
       </c>
       <c r="K158">
-        <v>0.41305748968421002</v>
+        <v>0.41785549999999999</v>
       </c>
       <c r="L158">
-        <v>0.62284938736842099</v>
+        <v>0.62468420000000002</v>
       </c>
       <c r="M158">
-        <v>0.452529648842105</v>
+        <v>0.47525240000000002</v>
       </c>
       <c r="N158">
-        <v>0.66674539657894705</v>
+        <v>0.66682019999999997</v>
       </c>
       <c r="O158">
-        <v>0.65362110773684201</v>
+        <v>0.65373840000000005</v>
       </c>
       <c r="P158">
-        <v>0.80049756363157898</v>
+        <v>0.80061789999999999</v>
       </c>
       <c r="Q158">
-        <v>0.80360592678947296</v>
+        <v>0.80360500000000001</v>
       </c>
       <c r="R158">
-        <v>0.911317737789474</v>
+        <v>0.91332990000000003</v>
       </c>
       <c r="S158">
-        <v>0.97510733099999902</v>
+        <v>0.98274709999999998</v>
       </c>
       <c r="T158">
-        <v>1.08528407657895</v>
+        <v>1.1088690999999999</v>
       </c>
       <c r="U158">
-        <v>1.08528407657895</v>
+        <v>1.1088690999999999</v>
       </c>
       <c r="V158">
-        <v>1.08528407657895</v>
+        <v>1.1088690999999999</v>
       </c>
       <c r="W158">
-        <v>1.08528407657895</v>
+        <v>1.1088690999999999</v>
       </c>
       <c r="X158">
-        <v>1.08528407657895</v>
+        <v>1.1088690999999999</v>
       </c>
       <c r="Y158">
-        <v>1.08528407657895</v>
+        <v>1.1088690999999999</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
@@ -16227,64 +16227,64 @@
         <v>1985</v>
       </c>
       <c r="F159">
-        <v>1.6994084684210499E-3</v>
+        <v>6.7984250000000003E-3</v>
       </c>
       <c r="G159">
-        <v>2.6712968421052599E-2</v>
+        <v>7.5766559999999997E-2</v>
       </c>
       <c r="H159">
-        <v>0.15124241242105299</v>
+        <v>0.23657</v>
       </c>
       <c r="I159">
-        <v>0.30504030815789501</v>
+        <v>0.34707579999999999</v>
       </c>
       <c r="J159">
-        <v>0.52762264715789498</v>
+        <v>0.54601599999999995</v>
       </c>
       <c r="K159">
-        <v>0.51751804547368396</v>
+        <v>0.52352949999999998</v>
       </c>
       <c r="L159">
-        <v>0.49242466610526298</v>
+        <v>0.49387530000000002</v>
       </c>
       <c r="M159">
-        <v>0.72653109726315801</v>
+        <v>0.76301229999999998</v>
       </c>
       <c r="N159">
-        <v>0.56836820131578902</v>
+        <v>0.56843200000000005</v>
       </c>
       <c r="O159">
-        <v>0.770453184789473</v>
+        <v>0.77059140000000004</v>
       </c>
       <c r="P159">
-        <v>0.77123297415789405</v>
+        <v>0.7713489</v>
       </c>
       <c r="Q159">
-        <v>0.94784697047368405</v>
+        <v>0.94784590000000002</v>
       </c>
       <c r="R159">
-        <v>0.90726358094736903</v>
+        <v>0.90926680000000004</v>
       </c>
       <c r="S159">
-        <v>1.0316124719999999</v>
+        <v>1.0396949</v>
       </c>
       <c r="T159">
-        <v>1.1588606825263199</v>
+        <v>1.1840446</v>
       </c>
       <c r="U159">
-        <v>1.1588606825263199</v>
+        <v>1.1840446</v>
       </c>
       <c r="V159">
-        <v>1.1588606825263199</v>
+        <v>1.1840446</v>
       </c>
       <c r="W159">
-        <v>1.1588606825263199</v>
+        <v>1.1840446</v>
       </c>
       <c r="X159">
-        <v>1.1588606825263199</v>
+        <v>1.1840446</v>
       </c>
       <c r="Y159">
-        <v>1.1588606825263199</v>
+        <v>1.1840446</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
@@ -16304,64 +16304,64 @@
         <v>1986</v>
       </c>
       <c r="F160">
-        <v>1.3580821736842101E-3</v>
+        <v>5.432961E-3</v>
       </c>
       <c r="G160">
-        <v>3.5899143473684197E-2</v>
+        <v>0.1018215</v>
       </c>
       <c r="H160">
-        <v>0.14951274221052599</v>
+        <v>0.2338645</v>
       </c>
       <c r="I160">
-        <v>0.29341351368420998</v>
+        <v>0.3338468</v>
       </c>
       <c r="J160">
-        <v>0.38549570105263098</v>
+        <v>0.39893440000000002</v>
       </c>
       <c r="K160">
-        <v>0.56679883957894694</v>
+        <v>0.57338270000000002</v>
       </c>
       <c r="L160">
-        <v>0.54054649115789499</v>
+        <v>0.54213889999999998</v>
       </c>
       <c r="M160">
-        <v>0.50325632421052602</v>
+        <v>0.52852619999999995</v>
       </c>
       <c r="N160">
-        <v>0.799494092052631</v>
+        <v>0.79958379999999996</v>
       </c>
       <c r="O160">
-        <v>0.57543238136842101</v>
+        <v>0.57553560000000004</v>
       </c>
       <c r="P160">
-        <v>0.79649687036842098</v>
+        <v>0.79661660000000001</v>
       </c>
       <c r="Q160">
-        <v>0.80009587515789404</v>
+        <v>0.800095</v>
       </c>
       <c r="R160">
-        <v>0.937576652210527</v>
+        <v>0.9396468</v>
       </c>
       <c r="S160">
-        <v>0.89982594899999901</v>
+        <v>0.90687589999999996</v>
       </c>
       <c r="T160">
-        <v>1.0741715524736899</v>
+        <v>1.097515</v>
       </c>
       <c r="U160">
-        <v>1.0741715524736899</v>
+        <v>1.097515</v>
       </c>
       <c r="V160">
-        <v>1.0741715524736899</v>
+        <v>1.097515</v>
       </c>
       <c r="W160">
-        <v>1.0741715524736899</v>
+        <v>1.097515</v>
       </c>
       <c r="X160">
-        <v>1.0741715524736899</v>
+        <v>1.097515</v>
       </c>
       <c r="Y160">
-        <v>1.0741715524736899</v>
+        <v>1.097515</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
@@ -16381,64 +16381,64 @@
         <v>1987</v>
       </c>
       <c r="F161">
-        <v>1.3866976894736801E-3</v>
+        <v>5.5474369999999997E-3</v>
       </c>
       <c r="G161">
-        <v>2.6915894315789501E-2</v>
+        <v>7.6342119999999999E-2</v>
       </c>
       <c r="H161">
-        <v>0.18851098452631601</v>
+        <v>0.29486469999999998</v>
       </c>
       <c r="I161">
-        <v>0.27213285578947299</v>
+        <v>0.30963360000000001</v>
       </c>
       <c r="J161">
-        <v>0.34788748800000002</v>
+        <v>0.36001509999999998</v>
       </c>
       <c r="K161">
-        <v>0.38852729431578897</v>
+        <v>0.39304040000000001</v>
       </c>
       <c r="L161">
-        <v>0.55543453957894795</v>
+        <v>0.55707079999999998</v>
       </c>
       <c r="M161">
-        <v>0.51829717136842102</v>
+        <v>0.54432230000000004</v>
       </c>
       <c r="N161">
-        <v>0.51957309647368399</v>
+        <v>0.51963139999999997</v>
       </c>
       <c r="O161">
-        <v>0.75940960026315796</v>
+        <v>0.75954580000000005</v>
       </c>
       <c r="P161">
-        <v>0.55812109736842097</v>
+        <v>0.55820499999999995</v>
       </c>
       <c r="Q161">
-        <v>0.77524126342105204</v>
+        <v>0.77524040000000005</v>
       </c>
       <c r="R161">
-        <v>0.74251797831579003</v>
+        <v>0.74415739999999997</v>
       </c>
       <c r="S161">
-        <v>0.872425223999999</v>
+        <v>0.8792605</v>
       </c>
       <c r="T161">
-        <v>0.87904669563158</v>
+        <v>0.8981498</v>
       </c>
       <c r="U161">
-        <v>0.87904669563158</v>
+        <v>0.8981498</v>
       </c>
       <c r="V161">
-        <v>0.87904669563158</v>
+        <v>0.8981498</v>
       </c>
       <c r="W161">
-        <v>0.87904669563158</v>
+        <v>0.8981498</v>
       </c>
       <c r="X161">
-        <v>0.87904669563158</v>
+        <v>0.8981498</v>
       </c>
       <c r="Y161">
-        <v>0.87904669563158</v>
+        <v>0.8981498</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
@@ -16458,64 +16458,64 @@
         <v>1988</v>
       </c>
       <c r="F162">
-        <v>1.61080642105263E-3</v>
+        <v>6.4439759999999997E-3</v>
       </c>
       <c r="G162">
-        <v>3.1529204105263199E-2</v>
+        <v>8.9426950000000005E-2</v>
       </c>
       <c r="H162">
-        <v>0.16214726515789499</v>
+        <v>0.2536272</v>
       </c>
       <c r="I162">
-        <v>0.393629714210526</v>
+        <v>0.44787310000000002</v>
       </c>
       <c r="J162">
-        <v>0.37015881642105197</v>
+        <v>0.38306289999999998</v>
       </c>
       <c r="K162">
-        <v>0.40224353684210501</v>
+        <v>0.4069159</v>
       </c>
       <c r="L162">
-        <v>0.43679110315789499</v>
+        <v>0.43807780000000002</v>
       </c>
       <c r="M162">
-        <v>0.610980199578947</v>
+        <v>0.64165919999999999</v>
       </c>
       <c r="N162">
-        <v>0.613881634263158</v>
+        <v>0.61395049999999995</v>
       </c>
       <c r="O162">
-        <v>0.56618185263157905</v>
+        <v>0.56628339999999999</v>
       </c>
       <c r="P162">
-        <v>0.84500382694736798</v>
+        <v>0.84513079999999996</v>
       </c>
       <c r="Q162">
-        <v>0.62320312563157898</v>
+        <v>0.62320240000000005</v>
       </c>
       <c r="R162">
-        <v>0.82537300199999997</v>
+        <v>0.82719540000000003</v>
       </c>
       <c r="S162">
-        <v>0.79264142099999901</v>
+        <v>0.7988516</v>
       </c>
       <c r="T162">
-        <v>0.97775494452631695</v>
+        <v>0.99900310000000003</v>
       </c>
       <c r="U162">
-        <v>0.97775494452631695</v>
+        <v>0.99900310000000003</v>
       </c>
       <c r="V162">
-        <v>0.97775494452631695</v>
+        <v>0.99900310000000003</v>
       </c>
       <c r="W162">
-        <v>0.97775494452631695</v>
+        <v>0.99900310000000003</v>
       </c>
       <c r="X162">
-        <v>0.97775494452631695</v>
+        <v>0.99900310000000003</v>
       </c>
       <c r="Y162">
-        <v>0.97775494452631695</v>
+        <v>0.99900310000000003</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
@@ -16535,64 +16535,64 @@
         <v>1989</v>
       </c>
       <c r="F163">
-        <v>1.57140268421053E-3</v>
+        <v>6.2863429999999998E-3</v>
       </c>
       <c r="G163">
-        <v>3.36103942105263E-2</v>
+        <v>9.5329880000000006E-2</v>
       </c>
       <c r="H163">
-        <v>0.174306219789474</v>
+        <v>0.2726459</v>
       </c>
       <c r="I163">
-        <v>0.31071338736842102</v>
+        <v>0.35353059999999997</v>
       </c>
       <c r="J163">
-        <v>0.49135359073684198</v>
+        <v>0.50848260000000001</v>
       </c>
       <c r="K163">
-        <v>0.39276934484210502</v>
+        <v>0.39733170000000001</v>
       </c>
       <c r="L163">
-        <v>0.414992773684211</v>
+        <v>0.41621530000000001</v>
       </c>
       <c r="M163">
-        <v>0.440927427368421</v>
+        <v>0.46306760000000002</v>
       </c>
       <c r="N163">
-        <v>0.66409779078947295</v>
+        <v>0.66417230000000005</v>
       </c>
       <c r="O163">
-        <v>0.61389352799999997</v>
+        <v>0.61400370000000004</v>
       </c>
       <c r="P163">
-        <v>0.57814605236842098</v>
+        <v>0.57823290000000005</v>
       </c>
       <c r="Q163">
-        <v>0.86588253236842105</v>
+        <v>0.86588149999999997</v>
       </c>
       <c r="R163">
-        <v>0.60889458368421101</v>
+        <v>0.61023899999999998</v>
       </c>
       <c r="S163">
-        <v>0.80857289699999901</v>
+        <v>0.81490790000000002</v>
       </c>
       <c r="T163">
-        <v>0.81522545763158005</v>
+        <v>0.83294159999999995</v>
       </c>
       <c r="U163">
-        <v>0.81522545763158005</v>
+        <v>0.83294159999999995</v>
       </c>
       <c r="V163">
-        <v>0.81522545763158005</v>
+        <v>0.83294159999999995</v>
       </c>
       <c r="W163">
-        <v>0.81522545763158005</v>
+        <v>0.83294159999999995</v>
       </c>
       <c r="X163">
-        <v>0.81522545763158005</v>
+        <v>0.83294159999999995</v>
       </c>
       <c r="Y163">
-        <v>0.81522545763158005</v>
+        <v>0.83294159999999995</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
@@ -16612,64 +16612,64 @@
         <v>1990</v>
       </c>
       <c r="F164">
-        <v>1.55079626842105E-3</v>
+        <v>6.2039069999999998E-3</v>
       </c>
       <c r="G164">
-        <v>3.43868932631579E-2</v>
+        <v>9.7532279999999999E-2</v>
       </c>
       <c r="H164">
-        <v>0.194871717157895</v>
+        <v>0.30481399999999997</v>
       </c>
       <c r="I164">
-        <v>0.350298685</v>
+        <v>0.39857090000000001</v>
       </c>
       <c r="J164">
-        <v>0.40676297263157901</v>
+        <v>0.42094310000000001</v>
       </c>
       <c r="K164">
-        <v>0.54678765221052605</v>
+        <v>0.55313909999999999</v>
       </c>
       <c r="L164">
-        <v>0.42497576231578998</v>
+        <v>0.42622769999999999</v>
       </c>
       <c r="M164">
-        <v>0.43934837726315801</v>
+        <v>0.46140930000000002</v>
       </c>
       <c r="N164">
-        <v>0.50262861931578895</v>
+        <v>0.50268500000000005</v>
       </c>
       <c r="O164">
-        <v>0.69649113268421003</v>
+        <v>0.69661609999999996</v>
       </c>
       <c r="P164">
-        <v>0.65743060168420997</v>
+        <v>0.65752940000000004</v>
       </c>
       <c r="Q164">
-        <v>0.62131681894736801</v>
+        <v>0.62131610000000004</v>
       </c>
       <c r="R164">
-        <v>0.88725137757894801</v>
+        <v>0.88921039999999996</v>
       </c>
       <c r="S164">
-        <v>0.62558486099999999</v>
+        <v>0.6304862</v>
       </c>
       <c r="T164">
-        <v>0.87215826052631595</v>
+        <v>0.89111169999999995</v>
       </c>
       <c r="U164">
-        <v>0.87215826052631595</v>
+        <v>0.89111169999999995</v>
       </c>
       <c r="V164">
-        <v>0.87215826052631595</v>
+        <v>0.89111169999999995</v>
       </c>
       <c r="W164">
-        <v>0.87215826052631595</v>
+        <v>0.89111169999999995</v>
       </c>
       <c r="X164">
-        <v>0.87215826052631595</v>
+        <v>0.89111169999999995</v>
       </c>
       <c r="Y164">
-        <v>0.87215826052631595</v>
+        <v>0.89111169999999995</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
@@ -16689,64 +16689,64 @@
         <v>1991</v>
       </c>
       <c r="F165">
-        <v>1.6355204684210499E-3</v>
+        <v>6.5428439999999999E-3</v>
       </c>
       <c r="G165">
-        <v>3.3598287052631598E-2</v>
+        <v>9.5295539999999998E-2</v>
       </c>
       <c r="H165">
-        <v>0.19738996852631599</v>
+        <v>0.308753</v>
       </c>
       <c r="I165">
-        <v>0.38773165605263099</v>
+        <v>0.44116230000000001</v>
       </c>
       <c r="J165">
-        <v>0.45402198315789399</v>
+        <v>0.46984959999999998</v>
       </c>
       <c r="K165">
-        <v>0.44814960757894701</v>
+        <v>0.45335530000000002</v>
       </c>
       <c r="L165">
-        <v>0.58573651284210604</v>
+        <v>0.58746200000000004</v>
       </c>
       <c r="M165">
-        <v>0.44544048084210502</v>
+        <v>0.46780729999999998</v>
       </c>
       <c r="N165">
-        <v>0.49584519142105199</v>
+        <v>0.49590079999999997</v>
       </c>
       <c r="O165">
-        <v>0.52190057084210495</v>
+        <v>0.52199419999999996</v>
       </c>
       <c r="P165">
-        <v>0.73846413</v>
+        <v>0.73857510000000004</v>
       </c>
       <c r="Q165">
-        <v>0.69949135278947305</v>
+        <v>0.69949050000000002</v>
       </c>
       <c r="R165">
-        <v>0.63031512557894798</v>
+        <v>0.63170680000000001</v>
       </c>
       <c r="S165">
-        <v>0.90250102799999898</v>
+        <v>0.90957189999999999</v>
       </c>
       <c r="T165">
-        <v>0.66806592705263201</v>
+        <v>0.68258410000000003</v>
       </c>
       <c r="U165">
-        <v>0.66806592705263201</v>
+        <v>0.68258410000000003</v>
       </c>
       <c r="V165">
-        <v>0.66806592705263201</v>
+        <v>0.68258410000000003</v>
       </c>
       <c r="W165">
-        <v>0.66806592705263201</v>
+        <v>0.68258410000000003</v>
       </c>
       <c r="X165">
-        <v>0.66806592705263201</v>
+        <v>0.68258410000000003</v>
       </c>
       <c r="Y165">
-        <v>0.66806592705263201</v>
+        <v>0.68258410000000003</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
@@ -16766,64 +16766,64 @@
         <v>1992</v>
       </c>
       <c r="F166">
-        <v>1.7855205789473699E-3</v>
+        <v>7.1429140000000002E-3</v>
       </c>
       <c r="G166">
-        <v>3.5590093789473698E-2</v>
+        <v>0.10094494</v>
       </c>
       <c r="H166">
-        <v>0.193713579894737</v>
+        <v>0.30300250000000001</v>
       </c>
       <c r="I166">
-        <v>0.39447405684210501</v>
+        <v>0.4488338</v>
       </c>
       <c r="J166">
-        <v>0.50475490610526297</v>
+        <v>0.52235109999999996</v>
       </c>
       <c r="K166">
-        <v>0.50242273010526295</v>
+        <v>0.50825880000000001</v>
       </c>
       <c r="L166">
-        <v>0.48218924484210601</v>
+        <v>0.48360969999999998</v>
       </c>
       <c r="M166">
-        <v>0.616649897263158</v>
+        <v>0.64761360000000001</v>
       </c>
       <c r="N166">
-        <v>0.504937403526316</v>
+        <v>0.50499400000000005</v>
       </c>
       <c r="O166">
-        <v>0.51712738436842098</v>
+        <v>0.51722020000000002</v>
       </c>
       <c r="P166">
-        <v>0.55579222373684201</v>
+        <v>0.55587580000000003</v>
       </c>
       <c r="Q166">
-        <v>0.78917392657894703</v>
+        <v>0.78917300000000001</v>
       </c>
       <c r="R166">
-        <v>0.71275097715789504</v>
+        <v>0.71432470000000003</v>
       </c>
       <c r="S166">
-        <v>0.64397589300000002</v>
+        <v>0.64902130000000002</v>
       </c>
       <c r="T166">
-        <v>0.96803632215789504</v>
+        <v>0.98907330000000004</v>
       </c>
       <c r="U166">
-        <v>0.96803632215789504</v>
+        <v>0.98907330000000004</v>
       </c>
       <c r="V166">
-        <v>0.96803632215789504</v>
+        <v>0.98907330000000004</v>
       </c>
       <c r="W166">
-        <v>0.96803632215789504</v>
+        <v>0.98907330000000004</v>
       </c>
       <c r="X166">
-        <v>0.96803632215789504</v>
+        <v>0.98907330000000004</v>
       </c>
       <c r="Y166">
-        <v>0.96803632215789504</v>
+        <v>0.98907330000000004</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
@@ -16843,64 +16843,64 @@
         <v>1993</v>
       </c>
       <c r="F167">
-        <v>1.3877081842105299E-3</v>
+        <v>5.5514789999999998E-3</v>
       </c>
       <c r="G167">
-        <v>3.2840045263157903E-2</v>
+        <v>9.3144920000000006E-2</v>
       </c>
       <c r="H167">
-        <v>0.173435463789474</v>
+        <v>0.27128390000000002</v>
       </c>
       <c r="I167">
-        <v>0.32720442815789402</v>
+        <v>0.37229420000000002</v>
       </c>
       <c r="J167">
-        <v>0.43404359368421003</v>
+        <v>0.44917469999999998</v>
       </c>
       <c r="K167">
-        <v>0.47210500042105202</v>
+        <v>0.47758889999999998</v>
       </c>
       <c r="L167">
-        <v>0.45690873915789498</v>
+        <v>0.45825470000000001</v>
       </c>
       <c r="M167">
-        <v>0.42906142821052601</v>
+        <v>0.4506058</v>
       </c>
       <c r="N167">
-        <v>0.590815980473684</v>
+        <v>0.59088229999999997</v>
       </c>
       <c r="O167">
-        <v>0.445096915105263</v>
+        <v>0.44517679999999998</v>
       </c>
       <c r="P167">
-        <v>0.46546588894736801</v>
+        <v>0.4655358</v>
       </c>
       <c r="Q167">
-        <v>0.50202043957894704</v>
+        <v>0.50201989999999996</v>
       </c>
       <c r="R167">
-        <v>0.679663395263158</v>
+        <v>0.68116410000000005</v>
       </c>
       <c r="S167">
-        <v>0.615482109</v>
+        <v>0.62030430000000003</v>
       </c>
       <c r="T167">
-        <v>0.58382036863157905</v>
+        <v>0.59650769999999997</v>
       </c>
       <c r="U167">
-        <v>0.58382036863157905</v>
+        <v>0.59650769999999997</v>
       </c>
       <c r="V167">
-        <v>0.58382036863157905</v>
+        <v>0.59650769999999997</v>
       </c>
       <c r="W167">
-        <v>0.58382036863157905</v>
+        <v>0.59650769999999997</v>
       </c>
       <c r="X167">
-        <v>0.58382036863157905</v>
+        <v>0.59650769999999997</v>
       </c>
       <c r="Y167">
-        <v>0.58382036863157905</v>
+        <v>0.59650769999999997</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
@@ -16920,64 +16920,64 @@
         <v>1994</v>
       </c>
       <c r="F168">
-        <v>1.6215467052631599E-3</v>
+        <v>6.4869419999999999E-3</v>
       </c>
       <c r="G168">
-        <v>3.27156917894737E-2</v>
+        <v>9.279221E-2</v>
       </c>
       <c r="H168">
-        <v>0.20513106421052599</v>
+        <v>0.32086150000000002</v>
       </c>
       <c r="I168">
-        <v>0.37550514157894699</v>
+        <v>0.42725089999999999</v>
       </c>
       <c r="J168">
-        <v>0.46148019957894698</v>
+        <v>0.47756779999999999</v>
       </c>
       <c r="K168">
-        <v>0.52036782063157805</v>
+        <v>0.52641230000000006</v>
       </c>
       <c r="L168">
-        <v>0.55032315221052697</v>
+        <v>0.5519444</v>
       </c>
       <c r="M168">
-        <v>0.52113525557894702</v>
+        <v>0.54730290000000004</v>
       </c>
       <c r="N168">
-        <v>0.52692892294736804</v>
+        <v>0.52698800000000001</v>
       </c>
       <c r="O168">
-        <v>0.66755686926315805</v>
+        <v>0.66767659999999995</v>
       </c>
       <c r="P168">
-        <v>0.51352787984210502</v>
+        <v>0.51360510000000004</v>
       </c>
       <c r="Q168">
-        <v>0.53890951405263099</v>
+        <v>0.53890890000000002</v>
       </c>
       <c r="R168">
-        <v>0.55419377031578998</v>
+        <v>0.55541739999999995</v>
       </c>
       <c r="S168">
-        <v>0.75229902000000004</v>
+        <v>0.75819309999999995</v>
       </c>
       <c r="T168">
-        <v>0.71522732226315799</v>
+        <v>0.73077040000000004</v>
       </c>
       <c r="U168">
-        <v>0.71522732226315799</v>
+        <v>0.73077040000000004</v>
       </c>
       <c r="V168">
-        <v>0.71522732226315799</v>
+        <v>0.73077040000000004</v>
       </c>
       <c r="W168">
-        <v>0.71522732226315799</v>
+        <v>0.73077040000000004</v>
       </c>
       <c r="X168">
-        <v>0.71522732226315799</v>
+        <v>0.73077040000000004</v>
       </c>
       <c r="Y168">
-        <v>0.71522732226315799</v>
+        <v>0.73077040000000004</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
@@ -16997,64 +16997,64 @@
         <v>1995</v>
       </c>
       <c r="F169">
-        <v>1.8659506105263199E-3</v>
+        <v>7.4646720000000003E-3</v>
       </c>
       <c r="G169">
-        <v>3.7527666526315798E-2</v>
+        <v>0.10644052</v>
       </c>
       <c r="H169">
-        <v>0.20060785947368401</v>
+        <v>0.31378640000000002</v>
       </c>
       <c r="I169">
-        <v>0.43598712184210497</v>
+        <v>0.49606749999999999</v>
       </c>
       <c r="J169">
-        <v>0.51989308210526297</v>
+        <v>0.53801699999999997</v>
       </c>
       <c r="K169">
-        <v>0.54311823663157899</v>
+        <v>0.549427</v>
       </c>
       <c r="L169">
-        <v>0.59546159200000004</v>
+        <v>0.59721579999999996</v>
       </c>
       <c r="M169">
-        <v>0.61617344168420995</v>
+        <v>0.6471133</v>
       </c>
       <c r="N169">
-        <v>0.62827125678947404</v>
+        <v>0.6283417</v>
       </c>
       <c r="O169">
-        <v>0.584456629263158</v>
+        <v>0.58456149999999996</v>
       </c>
       <c r="P169">
-        <v>0.75606965905263102</v>
+        <v>0.7561833</v>
       </c>
       <c r="Q169">
-        <v>0.58365495142105295</v>
+        <v>0.58365429999999996</v>
       </c>
       <c r="R169">
-        <v>0.58400991578947403</v>
+        <v>0.58529940000000003</v>
       </c>
       <c r="S169">
-        <v>0.60217452900000001</v>
+        <v>0.6068924</v>
       </c>
       <c r="T169">
-        <v>0.85818969115789501</v>
+        <v>0.87683949999999999</v>
       </c>
       <c r="U169">
-        <v>0.85818969115789501</v>
+        <v>0.87683949999999999</v>
       </c>
       <c r="V169">
-        <v>0.85818969115789501</v>
+        <v>0.87683949999999999</v>
       </c>
       <c r="W169">
-        <v>0.85818969115789501</v>
+        <v>0.87683949999999999</v>
       </c>
       <c r="X169">
-        <v>0.85818969115789501</v>
+        <v>0.87683949999999999</v>
       </c>
       <c r="Y169">
-        <v>0.85818969115789501</v>
+        <v>0.87683949999999999</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
@@ -17074,64 +17074,64 @@
         <v>1996</v>
       </c>
       <c r="F170">
-        <v>1.6108232684210501E-3</v>
+        <v>6.444043E-3</v>
       </c>
       <c r="G170">
-        <v>3.8615407789473699E-2</v>
+        <v>0.1095257</v>
       </c>
       <c r="H170">
-        <v>0.20576990568421</v>
+        <v>0.3218607</v>
       </c>
       <c r="I170">
-        <v>0.38126636552631499</v>
+        <v>0.43380600000000002</v>
       </c>
       <c r="J170">
-        <v>0.53977168715789503</v>
+        <v>0.55858859999999999</v>
       </c>
       <c r="K170">
-        <v>0.54713397221052595</v>
+        <v>0.55348940000000002</v>
       </c>
       <c r="L170">
-        <v>0.55574562421052698</v>
+        <v>0.55738279999999996</v>
       </c>
       <c r="M170">
-        <v>0.59617991157894701</v>
+        <v>0.6261158</v>
       </c>
       <c r="N170">
-        <v>0.664260005368421</v>
+        <v>0.66433450000000005</v>
       </c>
       <c r="O170">
-        <v>0.62314025873684198</v>
+        <v>0.62325209999999998</v>
       </c>
       <c r="P170">
-        <v>0.59192159826315804</v>
+        <v>0.59201060000000005</v>
       </c>
       <c r="Q170">
-        <v>0.76840896126315805</v>
+        <v>0.76840810000000004</v>
       </c>
       <c r="R170">
-        <v>0.56558628</v>
+        <v>0.56683510000000004</v>
       </c>
       <c r="S170">
-        <v>0.56743919099999995</v>
+        <v>0.57188490000000003</v>
       </c>
       <c r="T170">
-        <v>0.61426194215789498</v>
+        <v>0.62761080000000002</v>
       </c>
       <c r="U170">
-        <v>0.61426194215789498</v>
+        <v>0.62761080000000002</v>
       </c>
       <c r="V170">
-        <v>0.61426194215789498</v>
+        <v>0.62761080000000002</v>
       </c>
       <c r="W170">
-        <v>0.61426194215789498</v>
+        <v>0.62761080000000002</v>
       </c>
       <c r="X170">
-        <v>0.61426194215789498</v>
+        <v>0.62761080000000002</v>
       </c>
       <c r="Y170">
-        <v>0.61426194215789498</v>
+        <v>0.62761080000000002</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
@@ -17151,64 +17151,64 @@
         <v>1997</v>
       </c>
       <c r="F171">
-        <v>1.58213306842105E-3</v>
+        <v>6.3292690000000002E-3</v>
       </c>
       <c r="G171">
-        <v>3.5286380631578997E-2</v>
+        <v>0.10008351</v>
       </c>
       <c r="H171">
-        <v>0.22412462810526301</v>
+        <v>0.35057080000000002</v>
       </c>
       <c r="I171">
-        <v>0.41396260631578902</v>
+        <v>0.47100789999999998</v>
       </c>
       <c r="J171">
-        <v>0.49964754947368401</v>
+        <v>0.51706569999999996</v>
       </c>
       <c r="K171">
-        <v>0.60129635115789404</v>
+        <v>0.60828090000000001</v>
       </c>
       <c r="L171">
-        <v>0.59261701978947401</v>
+        <v>0.59436279999999997</v>
       </c>
       <c r="M171">
-        <v>0.58897702989473599</v>
+        <v>0.61855119999999997</v>
       </c>
       <c r="N171">
-        <v>0.68031684994736796</v>
+        <v>0.68039320000000003</v>
       </c>
       <c r="O171">
-        <v>0.69738955957894699</v>
+        <v>0.69751470000000004</v>
       </c>
       <c r="P171">
-        <v>0.66803071973684203</v>
+        <v>0.66813109999999998</v>
       </c>
       <c r="Q171">
-        <v>0.63678597299999995</v>
+        <v>0.63678520000000005</v>
       </c>
       <c r="R171">
-        <v>0.78819527726315797</v>
+        <v>0.78993559999999996</v>
       </c>
       <c r="S171">
-        <v>0.58169697300000001</v>
+        <v>0.58625439999999995</v>
       </c>
       <c r="T171">
-        <v>0.61270200484210502</v>
+        <v>0.62601700000000005</v>
       </c>
       <c r="U171">
-        <v>0.61270200484210502</v>
+        <v>0.62601700000000005</v>
       </c>
       <c r="V171">
-        <v>0.61270200484210502</v>
+        <v>0.62601700000000005</v>
       </c>
       <c r="W171">
-        <v>0.61270200484210502</v>
+        <v>0.62601700000000005</v>
       </c>
       <c r="X171">
-        <v>0.61270200484210502</v>
+        <v>0.62601700000000005</v>
       </c>
       <c r="Y171">
-        <v>0.61270200484210502</v>
+        <v>0.62601700000000005</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
@@ -17228,64 +17228,64 @@
         <v>1998</v>
       </c>
       <c r="F172">
-        <v>1.6454510368421099E-3</v>
+        <v>6.5825709999999997E-3</v>
       </c>
       <c r="G172">
-        <v>3.1875471578947399E-2</v>
+        <v>9.0409080000000003E-2</v>
       </c>
       <c r="H172">
-        <v>0.18836078347368401</v>
+        <v>0.2946298</v>
       </c>
       <c r="I172">
-        <v>0.41468984236842099</v>
+        <v>0.47183540000000002</v>
       </c>
       <c r="J172">
-        <v>0.49894284589473697</v>
+        <v>0.51633640000000003</v>
       </c>
       <c r="K172">
-        <v>0.51191347452631497</v>
+        <v>0.51785979999999998</v>
       </c>
       <c r="L172">
-        <v>0.59899535010526395</v>
+        <v>0.60075990000000001</v>
       </c>
       <c r="M172">
-        <v>0.57763154442105202</v>
+        <v>0.60663610000000001</v>
       </c>
       <c r="N172">
-        <v>0.61813979194736801</v>
+        <v>0.61820909999999996</v>
       </c>
       <c r="O172">
-        <v>0.65690567810526301</v>
+        <v>0.65702349999999998</v>
       </c>
       <c r="P172">
-        <v>0.68760741078947396</v>
+        <v>0.68771070000000001</v>
       </c>
       <c r="Q172">
-        <v>0.66096763910526302</v>
+        <v>0.66096690000000002</v>
       </c>
       <c r="R172">
-        <v>0.60074400389473703</v>
+        <v>0.60207040000000001</v>
       </c>
       <c r="S172">
-        <v>0.74556622800000005</v>
+        <v>0.75140759999999995</v>
       </c>
       <c r="T172">
-        <v>0.57767180284210495</v>
+        <v>0.59022549999999996</v>
       </c>
       <c r="U172">
-        <v>0.57767180284210495</v>
+        <v>0.59022549999999996</v>
       </c>
       <c r="V172">
-        <v>0.57767180284210495</v>
+        <v>0.59022549999999996</v>
       </c>
       <c r="W172">
-        <v>0.57767180284210495</v>
+        <v>0.59022549999999996</v>
       </c>
       <c r="X172">
-        <v>0.57767180284210495</v>
+        <v>0.59022549999999996</v>
       </c>
       <c r="Y172">
-        <v>0.57767180284210495</v>
+        <v>0.59022549999999996</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
@@ -17305,64 +17305,64 @@
         <v>1999</v>
       </c>
       <c r="F173">
-        <v>1.48831580526316E-3</v>
+        <v>5.9539570000000002E-3</v>
       </c>
       <c r="G173">
-        <v>3.5012990526315797E-2</v>
+        <v>9.9308090000000002E-2</v>
       </c>
       <c r="H173">
-        <v>0.179709305368421</v>
+        <v>0.28109729999999999</v>
       </c>
       <c r="I173">
-        <v>0.36809065815789399</v>
+        <v>0.41881469999999998</v>
       </c>
       <c r="J173">
-        <v>0.527890172631579</v>
+        <v>0.54629289999999997</v>
       </c>
       <c r="K173">
-        <v>0.53990105684210499</v>
+        <v>0.54617249999999995</v>
       </c>
       <c r="L173">
-        <v>0.53859464421052705</v>
+        <v>0.54018129999999998</v>
       </c>
       <c r="M173">
-        <v>0.616638573473684</v>
+        <v>0.64760169999999995</v>
       </c>
       <c r="N173">
-        <v>0.640279733210526</v>
+        <v>0.64035160000000002</v>
       </c>
       <c r="O173">
-        <v>0.63038954131578995</v>
+        <v>0.63050260000000002</v>
       </c>
       <c r="P173">
-        <v>0.68406697515789505</v>
+        <v>0.68416980000000005</v>
       </c>
       <c r="Q173">
-        <v>0.71854641852631596</v>
+        <v>0.71854560000000001</v>
       </c>
       <c r="R173">
-        <v>0.65857719421052596</v>
+        <v>0.66003129999999999</v>
       </c>
       <c r="S173">
-        <v>0.60016720499999998</v>
+        <v>0.6048694</v>
       </c>
       <c r="T173">
-        <v>0.78198985915789498</v>
+        <v>0.79898380000000002</v>
       </c>
       <c r="U173">
-        <v>0.78198985915789498</v>
+        <v>0.79898380000000002</v>
       </c>
       <c r="V173">
-        <v>0.78198985915789498</v>
+        <v>0.79898380000000002</v>
       </c>
       <c r="W173">
-        <v>0.78198985915789498</v>
+        <v>0.79898380000000002</v>
       </c>
       <c r="X173">
-        <v>0.78198985915789498</v>
+        <v>0.79898380000000002</v>
       </c>
       <c r="Y173">
-        <v>0.78198985915789498</v>
+        <v>0.79898380000000002</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
@@ -17382,64 +17382,64 @@
         <v>2000</v>
       </c>
       <c r="F174">
-        <v>1.8794979789473699E-3</v>
+        <v>7.5188670000000003E-3</v>
       </c>
       <c r="G174">
-        <v>4.1796253263157897E-2</v>
+        <v>0.1185476</v>
       </c>
       <c r="H174">
-        <v>0.260520086105263</v>
+        <v>0.40749980000000002</v>
       </c>
       <c r="I174">
-        <v>0.46348215157894701</v>
+        <v>0.52735140000000003</v>
       </c>
       <c r="J174">
-        <v>0.61840515621052605</v>
+        <v>0.63996330000000001</v>
       </c>
       <c r="K174">
-        <v>0.75388484463157801</v>
+        <v>0.76264189999999998</v>
       </c>
       <c r="L174">
-        <v>0.74968309263157995</v>
+        <v>0.75189159999999999</v>
       </c>
       <c r="M174">
-        <v>0.73175783494736801</v>
+        <v>0.76850149999999995</v>
       </c>
       <c r="N174">
-        <v>0.90208536821052598</v>
+        <v>0.90218659999999995</v>
       </c>
       <c r="O174">
-        <v>0.86176759926315805</v>
+        <v>0.86192219999999997</v>
       </c>
       <c r="P174">
-        <v>0.86636867636842096</v>
+        <v>0.86649889999999996</v>
       </c>
       <c r="Q174">
-        <v>0.94343289489473703</v>
+        <v>0.94343180000000004</v>
       </c>
       <c r="R174">
-        <v>0.94488589726315797</v>
+        <v>0.94697220000000004</v>
       </c>
       <c r="S174">
-        <v>0.86833563300000005</v>
+        <v>0.87513879999999999</v>
       </c>
       <c r="T174">
-        <v>0.830778558578947</v>
+        <v>0.8488327</v>
       </c>
       <c r="U174">
-        <v>0.830778558578947</v>
+        <v>0.8488327</v>
       </c>
       <c r="V174">
-        <v>0.830778558578947</v>
+        <v>0.8488327</v>
       </c>
       <c r="W174">
-        <v>0.830778558578947</v>
+        <v>0.8488327</v>
       </c>
       <c r="X174">
-        <v>0.830778558578947</v>
+        <v>0.8488327</v>
       </c>
       <c r="Y174">
-        <v>0.830778558578947</v>
+        <v>0.8488327</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
@@ -17459,64 +17459,64 @@
         <v>2001</v>
       </c>
       <c r="F175">
-        <v>2.0401405894736801E-3</v>
+        <v>8.1615130000000004E-3</v>
       </c>
       <c r="G175">
-        <v>4.2166307578947397E-2</v>
+        <v>0.11959719000000001</v>
       </c>
       <c r="H175">
-        <v>0.24844530557894701</v>
+        <v>0.38861269999999998</v>
       </c>
       <c r="I175">
-        <v>0.53676602157894704</v>
+        <v>0.610734</v>
       </c>
       <c r="J175">
-        <v>0.62206066863157905</v>
+        <v>0.64374620000000005</v>
       </c>
       <c r="K175">
-        <v>0.705530887578947</v>
+        <v>0.71372619999999998</v>
       </c>
       <c r="L175">
-        <v>0.83627664652631595</v>
+        <v>0.83874020000000005</v>
       </c>
       <c r="M175">
-        <v>0.81370029642105202</v>
+        <v>0.8545585</v>
       </c>
       <c r="N175">
-        <v>0.85519615973684204</v>
+        <v>0.8552921</v>
       </c>
       <c r="O175">
-        <v>0.96995033100000005</v>
+        <v>0.9701244</v>
       </c>
       <c r="P175">
-        <v>0.94616155800000001</v>
+        <v>0.94630380000000003</v>
       </c>
       <c r="Q175">
-        <v>0.95454534315789497</v>
+        <v>0.95454419999999995</v>
       </c>
       <c r="R175">
-        <v>0.99109879947368396</v>
+        <v>0.99328709999999998</v>
       </c>
       <c r="S175">
-        <v>0.99527194799999996</v>
+        <v>1.0030697</v>
       </c>
       <c r="T175">
-        <v>0.96024499568420996</v>
+        <v>0.98111269999999995</v>
       </c>
       <c r="U175">
-        <v>0.96024499568420996</v>
+        <v>0.98111269999999995</v>
       </c>
       <c r="V175">
-        <v>0.96024499568420996</v>
+        <v>0.98111269999999995</v>
       </c>
       <c r="W175">
-        <v>0.96024499568420996</v>
+        <v>0.98111269999999995</v>
       </c>
       <c r="X175">
-        <v>0.96024499568420996</v>
+        <v>0.98111269999999995</v>
       </c>
       <c r="Y175">
-        <v>0.96024499568420996</v>
+        <v>0.98111269999999995</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
@@ -17536,64 +17536,64 @@
         <v>2002</v>
       </c>
       <c r="F176">
-        <v>2.17160216842105E-3</v>
+        <v>8.6874199999999995E-3</v>
       </c>
       <c r="G176">
-        <v>4.5099632000000098E-2</v>
+        <v>0.12791704000000001</v>
       </c>
       <c r="H176">
-        <v>0.24697231</v>
+        <v>0.3863086</v>
       </c>
       <c r="I176">
-        <v>0.50438701789473595</v>
+        <v>0.57389310000000004</v>
       </c>
       <c r="J176">
-        <v>0.70986207031578996</v>
+        <v>0.7346085</v>
       </c>
       <c r="K176">
-        <v>0.69930215242105198</v>
+        <v>0.70742519999999998</v>
       </c>
       <c r="L176">
-        <v>0.77117013831578995</v>
+        <v>0.77344190000000002</v>
       </c>
       <c r="M176">
-        <v>0.894388101052631</v>
+        <v>0.93929790000000002</v>
       </c>
       <c r="N176">
-        <v>0.937026968210526</v>
+        <v>0.93713210000000002</v>
       </c>
       <c r="O176">
-        <v>0.90605977531578996</v>
+        <v>0.90622230000000004</v>
       </c>
       <c r="P176">
-        <v>1.0493343279473699</v>
+        <v>1.0494920000000001</v>
       </c>
       <c r="Q176">
-        <v>1.0271841920526299</v>
+        <v>1.027183</v>
       </c>
       <c r="R176">
-        <v>0.988079165368421</v>
+        <v>0.99026080000000005</v>
       </c>
       <c r="S176">
-        <v>1.0286522730000001</v>
+        <v>1.0367115</v>
       </c>
       <c r="T176">
-        <v>1.0844896721578901</v>
+        <v>1.1080574000000001</v>
       </c>
       <c r="U176">
-        <v>1.0844896721578901</v>
+        <v>1.1080574000000001</v>
       </c>
       <c r="V176">
-        <v>1.0844896721578901</v>
+        <v>1.1080574000000001</v>
       </c>
       <c r="W176">
-        <v>1.0844896721578901</v>
+        <v>1.1080574000000001</v>
       </c>
       <c r="X176">
-        <v>1.0844896721578901</v>
+        <v>1.1080574000000001</v>
       </c>
       <c r="Y176">
-        <v>1.0844896721578901</v>
+        <v>1.1080574000000001</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
@@ -17613,64 +17613,64 @@
         <v>2003</v>
       </c>
       <c r="F177">
-        <v>1.94888308421053E-3</v>
+        <v>7.79644E-3</v>
       </c>
       <c r="G177">
-        <v>4.1992904947368501E-2</v>
+        <v>0.11910537</v>
       </c>
       <c r="H177">
-        <v>0.231067300105263</v>
+        <v>0.36143039999999999</v>
       </c>
       <c r="I177">
-        <v>0.43859545052631499</v>
+        <v>0.49903520000000001</v>
       </c>
       <c r="J177">
-        <v>0.58349293852631601</v>
+        <v>0.60383399999999998</v>
       </c>
       <c r="K177">
-        <v>0.69805372547368305</v>
+        <v>0.70616219999999996</v>
       </c>
       <c r="L177">
-        <v>0.66862373831579003</v>
+        <v>0.67059340000000001</v>
       </c>
       <c r="M177">
-        <v>0.72145451873684197</v>
+        <v>0.75768080000000004</v>
       </c>
       <c r="N177">
-        <v>0.90094107078947405</v>
+        <v>0.90104209999999996</v>
       </c>
       <c r="O177">
-        <v>0.86841220026315802</v>
+        <v>0.86856800000000001</v>
       </c>
       <c r="P177">
-        <v>0.85744047789473699</v>
+        <v>0.85756929999999998</v>
       </c>
       <c r="Q177">
-        <v>0.99650544726315804</v>
+        <v>0.99650430000000001</v>
       </c>
       <c r="R177">
-        <v>0.93009276042105204</v>
+        <v>0.93214640000000004</v>
       </c>
       <c r="S177">
-        <v>0.89706949199999997</v>
+        <v>0.90409779999999995</v>
       </c>
       <c r="T177">
-        <v>0.98047149268420997</v>
+        <v>1.0017787</v>
       </c>
       <c r="U177">
-        <v>0.98047149268420997</v>
+        <v>1.0017787</v>
       </c>
       <c r="V177">
-        <v>0.98047149268420997</v>
+        <v>1.0017787</v>
       </c>
       <c r="W177">
-        <v>0.98047149268420997</v>
+        <v>1.0017787</v>
       </c>
       <c r="X177">
-        <v>0.98047149268420997</v>
+        <v>1.0017787</v>
       </c>
       <c r="Y177">
-        <v>0.98047149268420997</v>
+        <v>1.0017787</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
@@ -17690,64 +17690,64 @@
         <v>2004</v>
       </c>
       <c r="F178">
-        <v>1.86415610526316E-3</v>
+        <v>7.4574929999999999E-3</v>
       </c>
       <c r="G178">
-        <v>3.8838231894736903E-2</v>
+        <v>0.1101577</v>
       </c>
       <c r="H178">
-        <v>0.221727409052631</v>
+        <v>0.34682109999999999</v>
       </c>
       <c r="I178">
-        <v>0.42289477421052601</v>
+        <v>0.48117100000000002</v>
       </c>
       <c r="J178">
-        <v>0.52289416547368395</v>
+        <v>0.54112269999999996</v>
       </c>
       <c r="K178">
-        <v>0.59132804968421004</v>
+        <v>0.59819679999999997</v>
       </c>
       <c r="L178">
-        <v>0.68783421010526402</v>
+        <v>0.68986049999999999</v>
       </c>
       <c r="M178">
-        <v>0.64464192421052602</v>
+        <v>0.67701120000000004</v>
       </c>
       <c r="N178">
-        <v>0.74895770415789498</v>
+        <v>0.74904170000000003</v>
       </c>
       <c r="O178">
-        <v>0.86049466957894805</v>
+        <v>0.86064909999999994</v>
       </c>
       <c r="P178">
-        <v>0.84693690899999996</v>
+        <v>0.84706420000000004</v>
       </c>
       <c r="Q178">
-        <v>0.83916570126315804</v>
+        <v>0.83916469999999999</v>
       </c>
       <c r="R178">
-        <v>0.92989857557894695</v>
+        <v>0.9319518</v>
       </c>
       <c r="S178">
-        <v>0.87023920499999996</v>
+        <v>0.87705730000000004</v>
       </c>
       <c r="T178">
-        <v>0.88119193752631597</v>
+        <v>0.90034170000000002</v>
       </c>
       <c r="U178">
-        <v>0.88119193752631597</v>
+        <v>0.90034170000000002</v>
       </c>
       <c r="V178">
-        <v>0.88119193752631597</v>
+        <v>0.90034170000000002</v>
       </c>
       <c r="W178">
-        <v>0.88119193752631597</v>
+        <v>0.90034170000000002</v>
       </c>
       <c r="X178">
-        <v>0.88119193752631597</v>
+        <v>0.90034170000000002</v>
       </c>
       <c r="Y178">
-        <v>0.88119193752631597</v>
+        <v>0.90034170000000002</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
@@ -17767,64 +17767,64 @@
         <v>2005</v>
       </c>
       <c r="F179">
-        <v>1.7212461315789501E-3</v>
+        <v>6.8857859999999996E-3</v>
       </c>
       <c r="G179">
-        <v>3.9603506315789502E-2</v>
+        <v>0.11232826999999999</v>
       </c>
       <c r="H179">
-        <v>0.218615274</v>
+        <v>0.34195320000000001</v>
       </c>
       <c r="I179">
-        <v>0.43260421078947298</v>
+        <v>0.4922184</v>
       </c>
       <c r="J179">
-        <v>0.53747664547368401</v>
+        <v>0.55621350000000003</v>
       </c>
       <c r="K179">
-        <v>0.56491649431578905</v>
+        <v>0.5714785</v>
       </c>
       <c r="L179">
-        <v>0.62115634610526405</v>
+        <v>0.62298620000000005</v>
       </c>
       <c r="M179">
-        <v>0.70696530189473605</v>
+        <v>0.74246400000000001</v>
       </c>
       <c r="N179">
-        <v>0.71341871873684204</v>
+        <v>0.71349870000000004</v>
       </c>
       <c r="O179">
-        <v>0.76258232952631599</v>
+        <v>0.76271909999999998</v>
       </c>
       <c r="P179">
-        <v>0.89464528610526295</v>
+        <v>0.89477969999999996</v>
       </c>
       <c r="Q179">
-        <v>0.88363398457894804</v>
+        <v>0.883633</v>
       </c>
       <c r="R179">
-        <v>0.834797745368421</v>
+        <v>0.83664090000000002</v>
       </c>
       <c r="S179">
-        <v>0.92752486199999995</v>
+        <v>0.93479179999999995</v>
       </c>
       <c r="T179">
-        <v>0.91129842636842096</v>
+        <v>0.9311024</v>
       </c>
       <c r="U179">
-        <v>0.91129842636842096</v>
+        <v>0.9311024</v>
       </c>
       <c r="V179">
-        <v>0.91129842636842096</v>
+        <v>0.9311024</v>
       </c>
       <c r="W179">
-        <v>0.91129842636842096</v>
+        <v>0.9311024</v>
       </c>
       <c r="X179">
-        <v>0.91129842636842096</v>
+        <v>0.9311024</v>
       </c>
       <c r="Y179">
-        <v>0.91129842636842096</v>
+        <v>0.9311024</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
@@ -17844,64 +17844,64 @@
         <v>2006</v>
       </c>
       <c r="F180">
-        <v>1.54031842105263E-3</v>
+        <v>6.1619910000000003E-3</v>
       </c>
       <c r="G180">
-        <v>3.7841377052631603E-2</v>
+        <v>0.1073303</v>
       </c>
       <c r="H180">
-        <v>0.230689183052631</v>
+        <v>0.36083890000000002</v>
       </c>
       <c r="I180">
-        <v>0.44139207315789403</v>
+        <v>0.50221720000000003</v>
       </c>
       <c r="J180">
-        <v>0.56897172463157897</v>
+        <v>0.58880659999999996</v>
       </c>
       <c r="K180">
-        <v>0.60090066947368403</v>
+        <v>0.60788070000000005</v>
       </c>
       <c r="L180">
-        <v>0.61408634042105303</v>
+        <v>0.61589539999999998</v>
       </c>
       <c r="M180">
-        <v>0.66067517305263102</v>
+        <v>0.69384950000000001</v>
       </c>
       <c r="N180">
-        <v>0.80964884463157905</v>
+        <v>0.80973969999999995</v>
       </c>
       <c r="O180">
-        <v>0.75170345826315799</v>
+        <v>0.75183829999999996</v>
       </c>
       <c r="P180">
-        <v>0.82046884689473698</v>
+        <v>0.82059210000000005</v>
       </c>
       <c r="Q180">
-        <v>0.96592834894736901</v>
+        <v>0.96592719999999999</v>
       </c>
       <c r="R180">
-        <v>0.90965899252631499</v>
+        <v>0.91166749999999996</v>
       </c>
       <c r="S180">
-        <v>0.86167570500000001</v>
+        <v>0.8684267</v>
       </c>
       <c r="T180">
-        <v>1.0051252486842099</v>
+        <v>1.0269682</v>
       </c>
       <c r="U180">
-        <v>1.0051252486842099</v>
+        <v>1.0269682</v>
       </c>
       <c r="V180">
-        <v>1.0051252486842099</v>
+        <v>1.0269682</v>
       </c>
       <c r="W180">
-        <v>1.0051252486842099</v>
+        <v>1.0269682</v>
       </c>
       <c r="X180">
-        <v>1.0051252486842099</v>
+        <v>1.0269682</v>
       </c>
       <c r="Y180">
-        <v>1.0051252486842099</v>
+        <v>1.0269682</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
@@ -17921,64 +17921,64 @@
         <v>2007</v>
       </c>
       <c r="F181">
-        <v>1.27272784736842E-3</v>
+        <v>5.0915040000000002E-3</v>
       </c>
       <c r="G181">
-        <v>3.1375823789473699E-2</v>
+        <v>8.8991920000000002E-2</v>
       </c>
       <c r="H181">
-        <v>0.20423083189473701</v>
+        <v>0.3194534</v>
       </c>
       <c r="I181">
-        <v>0.431550839210526</v>
+        <v>0.49101990000000001</v>
       </c>
       <c r="J181">
-        <v>0.53787960631579002</v>
+        <v>0.55663050000000003</v>
       </c>
       <c r="K181">
-        <v>0.58937880505263096</v>
+        <v>0.596225</v>
       </c>
       <c r="L181">
-        <v>0.60521335831579004</v>
+        <v>0.60699630000000004</v>
       </c>
       <c r="M181">
-        <v>0.60516957305263097</v>
+        <v>0.63555680000000003</v>
       </c>
       <c r="N181">
-        <v>0.70104713352631598</v>
+        <v>0.70112580000000002</v>
       </c>
       <c r="O181">
-        <v>0.79042276894736896</v>
+        <v>0.79056459999999995</v>
       </c>
       <c r="P181">
-        <v>0.74934629952631604</v>
+        <v>0.74945890000000004</v>
       </c>
       <c r="Q181">
-        <v>0.820761093</v>
+        <v>0.82076020000000005</v>
       </c>
       <c r="R181">
-        <v>0.92132264326315705</v>
+        <v>0.92335690000000004</v>
       </c>
       <c r="S181">
-        <v>0.86996517299999998</v>
+        <v>0.87678120000000004</v>
       </c>
       <c r="T181">
-        <v>0.865165421315789</v>
+        <v>0.8839669</v>
       </c>
       <c r="U181">
-        <v>0.865165421315789</v>
+        <v>0.8839669</v>
       </c>
       <c r="V181">
-        <v>0.865165421315789</v>
+        <v>0.8839669</v>
       </c>
       <c r="W181">
-        <v>0.865165421315789</v>
+        <v>0.8839669</v>
       </c>
       <c r="X181">
-        <v>0.865165421315789</v>
+        <v>0.8839669</v>
       </c>
       <c r="Y181">
-        <v>0.865165421315789</v>
+        <v>0.8839669</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
@@ -17998,64 +17998,64 @@
         <v>2008</v>
       </c>
       <c r="F182">
-        <v>1.3908608999999999E-3</v>
+        <v>5.5640910000000002E-3</v>
       </c>
       <c r="G182">
-        <v>3.12846477894737E-2</v>
+        <v>8.8733309999999996E-2</v>
       </c>
       <c r="H182">
-        <v>0.20434340578947399</v>
+        <v>0.31962940000000001</v>
       </c>
       <c r="I182">
-        <v>0.46103844368420999</v>
+        <v>0.52457089999999995</v>
       </c>
       <c r="J182">
-        <v>0.63460540547368505</v>
+        <v>0.65672830000000004</v>
       </c>
       <c r="K182">
-        <v>0.67235727410526203</v>
+        <v>0.68016730000000003</v>
       </c>
       <c r="L182">
-        <v>0.71632733178947405</v>
+        <v>0.71843760000000001</v>
       </c>
       <c r="M182">
-        <v>0.71972626105263104</v>
+        <v>0.75586580000000003</v>
       </c>
       <c r="N182">
-        <v>0.77490334136842098</v>
+        <v>0.77499030000000002</v>
       </c>
       <c r="O182">
-        <v>0.82588799321052697</v>
+        <v>0.8260362</v>
       </c>
       <c r="P182">
-        <v>0.950838295263158</v>
+        <v>0.95098119999999997</v>
       </c>
       <c r="Q182">
-        <v>0.90458305294736896</v>
+        <v>0.904582</v>
       </c>
       <c r="R182">
-        <v>0.94470188021052603</v>
+        <v>0.94678770000000001</v>
       </c>
       <c r="S182">
-        <v>1.063276533</v>
+        <v>1.0716071</v>
       </c>
       <c r="T182">
-        <v>1.0540673463157899</v>
+        <v>1.0769739</v>
       </c>
       <c r="U182">
-        <v>1.0540673463157899</v>
+        <v>1.0769739</v>
       </c>
       <c r="V182">
-        <v>1.0540673463157899</v>
+        <v>1.0769739</v>
       </c>
       <c r="W182">
-        <v>1.0540673463157899</v>
+        <v>1.0769739</v>
       </c>
       <c r="X182">
-        <v>1.0540673463157899</v>
+        <v>1.0769739</v>
       </c>
       <c r="Y182">
-        <v>1.0540673463157899</v>
+        <v>1.0769739</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
@@ -18075,64 +18075,64 @@
         <v>2009</v>
       </c>
       <c r="F183">
-        <v>7.6919680000000004E-4</v>
+        <v>3.8785540000000002E-3</v>
       </c>
       <c r="G183">
-        <v>2.1458270000000002E-2</v>
+        <v>7.0524950000000003E-2</v>
       </c>
       <c r="H183">
-        <v>0.15135859199999999</v>
+        <v>0.26735789999999998</v>
       </c>
       <c r="I183">
-        <v>0.38522757600000002</v>
+        <v>0.45206170000000001</v>
       </c>
       <c r="J183">
-        <v>0.58322105499999999</v>
+        <v>0.60650190000000004</v>
       </c>
       <c r="K183">
-        <v>0.68289732000000003</v>
+        <v>0.69425440000000005</v>
       </c>
       <c r="L183">
-        <v>0.70314938100000002</v>
+        <v>0.7092157</v>
       </c>
       <c r="M183">
-        <v>0.77479779999999998</v>
+        <v>0.77422230000000003</v>
       </c>
       <c r="N183">
-        <v>0.79804850000000005</v>
+        <v>0.79765830000000004</v>
       </c>
       <c r="O183">
-        <v>0.79052020000000001</v>
+        <v>0.79019099999999998</v>
       </c>
       <c r="P183">
-        <v>0.86031970000000002</v>
+        <v>0.85992500000000005</v>
       </c>
       <c r="Q183">
-        <v>0.99394879999999997</v>
+        <v>0.99329880000000004</v>
       </c>
       <c r="R183">
-        <v>0.89494871399999998</v>
+        <v>0.90289900000000001</v>
       </c>
       <c r="S183">
-        <v>0.94360909500000001</v>
+        <v>0.95040380000000002</v>
       </c>
       <c r="T183">
-        <v>1.1011171200000001</v>
+        <v>1.1368906999999999</v>
       </c>
       <c r="U183">
-        <v>1.1011171200000001</v>
+        <v>1.1368906999999999</v>
       </c>
       <c r="V183">
-        <v>1.1011171200000001</v>
+        <v>1.1368906999999999</v>
       </c>
       <c r="W183">
-        <v>1.1011171200000001</v>
+        <v>1.1368906999999999</v>
       </c>
       <c r="X183">
-        <v>1.1011171200000001</v>
+        <v>1.1368906999999999</v>
       </c>
       <c r="Y183">
-        <v>1.1011171200000001</v>
+        <v>1.1368906999999999</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
@@ -18152,64 +18152,64 @@
         <v>2010</v>
       </c>
       <c r="F184">
-        <v>2.6063843999999999E-3</v>
+        <v>1.0298441E-2</v>
       </c>
       <c r="G184">
-        <v>4.9060022000000002E-2</v>
+        <v>0.12302265</v>
       </c>
       <c r="H184">
-        <v>0.23233016400000001</v>
+        <v>0.3157394</v>
       </c>
       <c r="I184">
-        <v>0.40408158700000002</v>
+        <v>0.4349073</v>
       </c>
       <c r="J184">
-        <v>0.56368188799999996</v>
+        <v>0.57234039999999997</v>
       </c>
       <c r="K184">
-        <v>0.690126723</v>
+        <v>0.69603870000000001</v>
       </c>
       <c r="L184">
-        <v>0.78467560000000003</v>
+        <v>0.78420319999999999</v>
       </c>
       <c r="M184">
-        <v>0.82766220000000001</v>
+        <v>0.82740689999999995</v>
       </c>
       <c r="N184">
-        <v>0.88448689999999996</v>
+        <v>0.88430609999999998</v>
       </c>
       <c r="O184">
-        <v>0.88036409999999998</v>
+        <v>0.88020989999999999</v>
       </c>
       <c r="P184">
-        <v>0.89046990000000004</v>
+        <v>0.89029700000000001</v>
       </c>
       <c r="Q184">
-        <v>0.9724893</v>
+        <v>0.97221840000000004</v>
       </c>
       <c r="R184">
-        <v>1.0741035000000001</v>
+        <v>1.0735486000000001</v>
       </c>
       <c r="S184">
-        <v>0.97382943899999996</v>
+        <v>0.98244719999999996</v>
       </c>
       <c r="T184">
-        <v>1.0792709620000001</v>
+        <v>1.0970707</v>
       </c>
       <c r="U184">
-        <v>1.0792709620000001</v>
+        <v>1.0970707</v>
       </c>
       <c r="V184">
-        <v>1.0792709620000001</v>
+        <v>1.0970707</v>
       </c>
       <c r="W184">
-        <v>1.0792709620000001</v>
+        <v>1.0970707</v>
       </c>
       <c r="X184">
-        <v>1.0792709620000001</v>
+        <v>1.0970707</v>
       </c>
       <c r="Y184">
-        <v>1.0792709620000001</v>
+        <v>1.0970707</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
@@ -18229,64 +18229,64 @@
         <v>2011</v>
       </c>
       <c r="F185">
-        <v>8.2272669999999999E-4</v>
+        <v>3.2506409999999999E-3</v>
       </c>
       <c r="G185">
-        <v>1.8579792000000001E-2</v>
+        <v>6.4705410000000005E-2</v>
       </c>
       <c r="H185">
-        <v>0.131553591</v>
+        <v>0.2486226</v>
       </c>
       <c r="I185">
-        <v>0.32681017200000001</v>
+        <v>0.39394200000000001</v>
       </c>
       <c r="J185">
-        <v>0.46547596800000002</v>
+        <v>0.48803469999999999</v>
       </c>
       <c r="K185">
-        <v>0.59017971599999997</v>
+        <v>0.59960389999999997</v>
       </c>
       <c r="L185">
-        <v>0.71656516800000003</v>
+        <v>0.72258529999999999</v>
       </c>
       <c r="M185">
-        <v>0.84313450000000001</v>
+        <v>0.84242609999999996</v>
       </c>
       <c r="N185">
-        <v>0.8712086</v>
+        <v>0.87073610000000001</v>
       </c>
       <c r="O185">
-        <v>0.89968499999999996</v>
+        <v>0.89927760000000001</v>
       </c>
       <c r="P185">
-        <v>0.91439680000000001</v>
+        <v>0.91394980000000003</v>
       </c>
       <c r="Q185">
-        <v>0.92813319999999999</v>
+        <v>0.92749959999999998</v>
       </c>
       <c r="R185">
-        <v>0.95933039399999998</v>
+        <v>0.96782619999999997</v>
       </c>
       <c r="S185">
-        <v>1.066920723</v>
+        <v>1.0745988</v>
       </c>
       <c r="T185">
-        <v>1.0060800000000001</v>
+        <v>1.0389438</v>
       </c>
       <c r="U185">
-        <v>1.0060800000000001</v>
+        <v>1.0389438</v>
       </c>
       <c r="V185">
-        <v>1.0060800000000001</v>
+        <v>1.0389438</v>
       </c>
       <c r="W185">
-        <v>1.0060800000000001</v>
+        <v>1.0389438</v>
       </c>
       <c r="X185">
-        <v>1.0060800000000001</v>
+        <v>1.0389438</v>
       </c>
       <c r="Y185">
-        <v>1.0060800000000001</v>
+        <v>1.0389438</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
@@ -18306,64 +18306,64 @@
         <v>2012</v>
       </c>
       <c r="F186">
-        <v>9.2730380000000004E-4</v>
+        <v>2.6911610000000001E-3</v>
       </c>
       <c r="G186">
-        <v>1.3662911999999999E-2</v>
+        <v>4.9674410000000002E-2</v>
       </c>
       <c r="H186">
-        <v>0.112758284</v>
+        <v>0.243142</v>
       </c>
       <c r="I186">
-        <v>0.29930414399999999</v>
+        <v>0.3818454</v>
       </c>
       <c r="J186">
-        <v>0.44507530000000001</v>
+        <v>0.47407179999999999</v>
       </c>
       <c r="K186">
-        <v>0.52070793100000001</v>
+        <v>0.53355390000000003</v>
       </c>
       <c r="L186">
-        <v>0.64094847300000002</v>
+        <v>0.6459028</v>
       </c>
       <c r="M186">
-        <v>7.2472401000000006E-2</v>
+        <v>0.80430690000000005</v>
       </c>
       <c r="N186">
-        <v>0.91890130000000003</v>
+        <v>0.91820979999999996</v>
       </c>
       <c r="O186">
-        <v>0.91753819999999997</v>
+        <v>0.91696460000000002</v>
       </c>
       <c r="P186">
-        <v>0.96753290000000003</v>
+        <v>0.96688399999999997</v>
       </c>
       <c r="Q186">
-        <v>0.98679879999999998</v>
+        <v>0.98588180000000003</v>
       </c>
       <c r="R186">
-        <v>0.94797430199999999</v>
+        <v>0.95595790000000003</v>
       </c>
       <c r="S186">
-        <v>0.98653561999999995</v>
+        <v>1.002807</v>
       </c>
       <c r="T186">
-        <v>1.12937197</v>
+        <v>1.1752904</v>
       </c>
       <c r="U186">
-        <v>1.12937197</v>
+        <v>1.1752904</v>
       </c>
       <c r="V186">
-        <v>1.12937197</v>
+        <v>1.1752904</v>
       </c>
       <c r="W186">
-        <v>1.12937197</v>
+        <v>1.1752904</v>
       </c>
       <c r="X186">
-        <v>1.12937197</v>
+        <v>1.1752904</v>
       </c>
       <c r="Y186">
-        <v>1.12937197</v>
+        <v>1.1752904</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
@@ -18383,64 +18383,64 @@
         <v>2013</v>
       </c>
       <c r="F187">
-        <v>1.0471896E-3</v>
+        <v>4.1869860000000002E-3</v>
       </c>
       <c r="G187">
-        <v>2.1698783999999999E-2</v>
+        <v>7.6274939999999999E-2</v>
       </c>
       <c r="H187">
-        <v>0.146987217</v>
+        <v>0.2789605</v>
       </c>
       <c r="I187">
-        <v>0.36949668600000002</v>
+        <v>0.44597179999999997</v>
       </c>
       <c r="J187">
-        <v>0.47680381399999999</v>
+        <v>0.50012570000000001</v>
       </c>
       <c r="K187">
-        <v>0.543139912</v>
+        <v>0.55190939999999999</v>
       </c>
       <c r="L187">
-        <v>0.60377397300000002</v>
+        <v>0.60890080000000002</v>
       </c>
       <c r="M187">
-        <v>0.76117500000000005</v>
+        <v>0.76057889999999995</v>
       </c>
       <c r="N187">
-        <v>0.92744689999999996</v>
+        <v>0.92698670000000005</v>
       </c>
       <c r="O187">
-        <v>1.0227223999999999</v>
+        <v>1.0223077</v>
       </c>
       <c r="P187">
-        <v>1.0427648</v>
+        <v>1.042319</v>
       </c>
       <c r="Q187">
-        <v>1.1034347</v>
+        <v>1.1027929999999999</v>
       </c>
       <c r="R187">
-        <v>1.075887</v>
+        <v>1.0747894</v>
       </c>
       <c r="S187">
-        <v>1.040727897</v>
+        <v>1.0488150000000001</v>
       </c>
       <c r="T187">
-        <v>1.1383133329999999</v>
+        <v>1.1656446</v>
       </c>
       <c r="U187">
-        <v>1.1383133329999999</v>
+        <v>1.1656446</v>
       </c>
       <c r="V187">
-        <v>1.1383133329999999</v>
+        <v>1.1656446</v>
       </c>
       <c r="W187">
-        <v>1.1383133329999999</v>
+        <v>1.1656446</v>
       </c>
       <c r="X187">
-        <v>1.1383133329999999</v>
+        <v>1.1656446</v>
       </c>
       <c r="Y187">
-        <v>1.1383133329999999</v>
+        <v>1.1656446</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
@@ -18460,64 +18460,64 @@
         <v>2014</v>
       </c>
       <c r="F188">
-        <v>2.1849365999999999E-3</v>
+        <v>1.0199866E-2</v>
       </c>
       <c r="G188">
-        <v>5.5906272E-2</v>
+        <v>0.15257232000000001</v>
       </c>
       <c r="H188">
-        <v>0.27767541600000001</v>
+        <v>0.39839160000000001</v>
       </c>
       <c r="I188">
-        <v>0.44794629000000002</v>
+        <v>0.48541250000000002</v>
       </c>
       <c r="J188">
-        <v>0.56853678799999996</v>
+        <v>0.58273010000000003</v>
       </c>
       <c r="K188">
-        <v>0.58334621399999997</v>
+        <v>0.58822470000000004</v>
       </c>
       <c r="L188">
-        <v>0.63847160000000003</v>
+        <v>0.63805089999999998</v>
       </c>
       <c r="M188">
-        <v>0.72706800000000005</v>
+        <v>0.72683140000000002</v>
       </c>
       <c r="N188">
-        <v>0.888961</v>
+        <v>0.88877649999999997</v>
       </c>
       <c r="O188">
-        <v>1.0466880000000001</v>
+        <v>1.0465092</v>
       </c>
       <c r="P188">
-        <v>1.1785805</v>
+        <v>1.1783665999999999</v>
       </c>
       <c r="Q188">
-        <v>1.2058867</v>
+        <v>1.2055864999999999</v>
       </c>
       <c r="R188">
-        <v>1.2198992</v>
+        <v>1.2193613999999999</v>
       </c>
       <c r="S188">
-        <v>1.1976959</v>
+        <v>1.1964895</v>
       </c>
       <c r="T188">
-        <v>1.2302118179999999</v>
+        <v>1.2389507</v>
       </c>
       <c r="U188">
-        <v>1.2302118179999999</v>
+        <v>1.2389507</v>
       </c>
       <c r="V188">
-        <v>1.2302118179999999</v>
+        <v>1.2389507</v>
       </c>
       <c r="W188">
-        <v>1.2302118179999999</v>
+        <v>1.2389507</v>
       </c>
       <c r="X188">
-        <v>1.2302118179999999</v>
+        <v>1.2389507</v>
       </c>
       <c r="Y188">
-        <v>1.2302118179999999</v>
+        <v>1.2389507</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
@@ -18537,64 +18537,64 @@
         <v>2015</v>
       </c>
       <c r="F189">
-        <v>2.6566008000000001E-3</v>
+        <v>9.5879759999999998E-3</v>
       </c>
       <c r="G189">
-        <v>4.8363200000000002E-2</v>
+        <v>0.12804359000000001</v>
       </c>
       <c r="H189">
-        <v>0.24896806399999999</v>
+        <v>0.34606239999999999</v>
       </c>
       <c r="I189">
-        <v>0.408254483</v>
+        <v>0.43878309999999998</v>
       </c>
       <c r="J189">
-        <v>0.45039535800000002</v>
+        <v>0.4571847</v>
       </c>
       <c r="K189">
-        <v>0.50305414500000001</v>
+        <v>0.50732739999999998</v>
       </c>
       <c r="L189">
-        <v>0.50659469999999995</v>
+        <v>0.50627820000000001</v>
       </c>
       <c r="M189">
-        <v>0.56805570000000005</v>
+        <v>0.56787529999999997</v>
       </c>
       <c r="N189">
-        <v>0.63370439999999995</v>
+        <v>0.63357200000000002</v>
       </c>
       <c r="O189">
-        <v>0.74872859999999997</v>
+        <v>0.74859540000000002</v>
       </c>
       <c r="P189">
-        <v>0.90018600000000004</v>
+        <v>0.90000939999999996</v>
       </c>
       <c r="Q189">
-        <v>1.0171684999999999</v>
+        <v>1.0168836999999999</v>
       </c>
       <c r="R189">
-        <v>0.99494090000000002</v>
+        <v>0.99442609999999998</v>
       </c>
       <c r="S189">
-        <v>1.0033501499999999</v>
+        <v>1.0122310999999999</v>
       </c>
       <c r="T189">
-        <v>1.0354492820000001</v>
+        <v>1.0525416999999999</v>
       </c>
       <c r="U189">
-        <v>1.0354492820000001</v>
+        <v>1.0525416999999999</v>
       </c>
       <c r="V189">
-        <v>1.0354492820000001</v>
+        <v>1.0525416999999999</v>
       </c>
       <c r="W189">
-        <v>1.0354492820000001</v>
+        <v>1.0525416999999999</v>
       </c>
       <c r="X189">
-        <v>1.0354492820000001</v>
+        <v>1.0525416999999999</v>
       </c>
       <c r="Y189">
-        <v>1.0354492820000001</v>
+        <v>1.0525416999999999</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
@@ -18614,64 +18614,64 @@
         <v>2016</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1.9762349999999998E-3</v>
       </c>
       <c r="G190">
-        <v>9.6841960000000008E-3</v>
+        <v>3.766974E-2</v>
       </c>
       <c r="H190">
-        <v>8.6042057000000005E-2</v>
+        <v>0.21236840000000001</v>
       </c>
       <c r="I190">
-        <v>0.293602364</v>
+        <v>0.41594389999999998</v>
       </c>
       <c r="J190">
-        <v>0.44515933800000002</v>
+        <v>0.49550119999999997</v>
       </c>
       <c r="K190">
-        <v>0.472448064</v>
+        <v>0.48727369999999998</v>
       </c>
       <c r="L190">
-        <v>0.52880721600000002</v>
+        <v>0.53747679999999998</v>
       </c>
       <c r="M190">
-        <v>0.55114695899999999</v>
+        <v>0.55558819999999998</v>
       </c>
       <c r="N190">
-        <v>0.60542459999999998</v>
+        <v>0.61071690000000001</v>
       </c>
       <c r="O190">
-        <v>0.65265829200000003</v>
+        <v>0.65848580000000001</v>
       </c>
       <c r="P190">
-        <v>0.78740263799999999</v>
+        <v>0.79432519999999995</v>
       </c>
       <c r="Q190">
-        <v>0.94999944599999997</v>
+        <v>0.95779530000000002</v>
       </c>
       <c r="R190">
-        <v>1.0158557500000001</v>
+        <v>1.0329444000000001</v>
       </c>
       <c r="S190">
-        <v>0.98013119999999998</v>
+        <v>1.0122861999999999</v>
       </c>
       <c r="T190">
-        <v>0.98284666899999995</v>
+        <v>1.0752451000000001</v>
       </c>
       <c r="U190">
-        <v>0.98284666899999995</v>
+        <v>1.0752451000000001</v>
       </c>
       <c r="V190">
-        <v>0.98284666899999995</v>
+        <v>1.0752451000000001</v>
       </c>
       <c r="W190">
-        <v>0.98284666899999995</v>
+        <v>1.0752451000000001</v>
       </c>
       <c r="X190">
-        <v>0.98284666899999995</v>
+        <v>1.0752451000000001</v>
       </c>
       <c r="Y190">
-        <v>0.98284666899999995</v>
+        <v>1.0752451000000001</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
@@ -18691,64 +18691,64 @@
         <v>2017</v>
       </c>
       <c r="F191">
-        <v>2.2601484000000002E-3</v>
+        <v>1.0046115E-2</v>
       </c>
       <c r="G191">
-        <v>5.1402100999999999E-2</v>
+        <v>0.14438635</v>
       </c>
       <c r="H191">
-        <v>0.24598655999999999</v>
+        <v>0.35613489999999998</v>
       </c>
       <c r="I191">
-        <v>0.44364533099999998</v>
+        <v>0.48535430000000002</v>
       </c>
       <c r="J191">
-        <v>0.57346254500000005</v>
+        <v>0.58752110000000002</v>
       </c>
       <c r="K191">
-        <v>0.593752104</v>
+        <v>0.59862700000000002</v>
       </c>
       <c r="L191">
-        <v>0.57204909999999998</v>
+        <v>0.57163339999999996</v>
       </c>
       <c r="M191">
-        <v>0.64908520000000003</v>
+        <v>0.64884830000000004</v>
       </c>
       <c r="N191">
-        <v>0.6560319</v>
+        <v>0.65587640000000003</v>
       </c>
       <c r="O191">
-        <v>0.6963821</v>
+        <v>0.69624330000000001</v>
       </c>
       <c r="P191">
-        <v>0.76656089999999999</v>
+        <v>0.76639460000000004</v>
       </c>
       <c r="Q191">
-        <v>0.92806060000000001</v>
+        <v>0.92777690000000002</v>
       </c>
       <c r="R191">
-        <v>1.0704342</v>
+        <v>1.0698377999999999</v>
       </c>
       <c r="S191">
-        <v>1.1526980849999999</v>
+        <v>1.1628118000000001</v>
       </c>
       <c r="T191">
-        <v>1.1933731460000001</v>
+        <v>1.2128540000000001</v>
       </c>
       <c r="U191">
-        <v>1.1933731460000001</v>
+        <v>1.2128540000000001</v>
       </c>
       <c r="V191">
-        <v>1.1933731460000001</v>
+        <v>1.2128540000000001</v>
       </c>
       <c r="W191">
-        <v>1.1933731460000001</v>
+        <v>1.2128540000000001</v>
       </c>
       <c r="X191">
-        <v>1.1933731460000001</v>
+        <v>1.2128540000000001</v>
       </c>
       <c r="Y191">
-        <v>1.1933731460000001</v>
+        <v>1.2128540000000001</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
@@ -18768,64 +18768,64 @@
         <v>2018</v>
       </c>
       <c r="F192">
-        <v>2.5957141999999999E-3</v>
+        <v>1.3015041E-2</v>
       </c>
       <c r="G192">
-        <v>6.2154965999999999E-2</v>
+        <v>0.16967412000000001</v>
       </c>
       <c r="H192">
-        <v>0.31697612800000002</v>
+        <v>0.44048720000000002</v>
       </c>
       <c r="I192">
-        <v>0.480864293</v>
+        <v>0.51724840000000005</v>
       </c>
       <c r="J192">
-        <v>0.58992315200000001</v>
+        <v>0.59904990000000002</v>
       </c>
       <c r="K192">
-        <v>0.663590664</v>
+        <v>0.66934450000000001</v>
       </c>
       <c r="L192">
-        <v>0.67433940000000003</v>
+        <v>0.67397830000000003</v>
       </c>
       <c r="M192">
-        <v>0.6656128</v>
+        <v>0.66543819999999998</v>
       </c>
       <c r="N192">
-        <v>0.73986490000000005</v>
+        <v>0.73974169999999995</v>
       </c>
       <c r="O192">
-        <v>0.7226129</v>
+        <v>0.72251399999999999</v>
       </c>
       <c r="P192">
-        <v>0.78325219999999995</v>
+        <v>0.78313790000000005</v>
       </c>
       <c r="Q192">
-        <v>0.86520569999999997</v>
+        <v>0.86503140000000001</v>
       </c>
       <c r="R192">
-        <v>1.0013966999999999</v>
+        <v>1.0010359</v>
       </c>
       <c r="S192">
-        <v>1.1630339999999999</v>
+        <v>1.1620628</v>
       </c>
       <c r="T192">
-        <v>1.32987492</v>
+        <v>1.3399433999999999</v>
       </c>
       <c r="U192">
-        <v>1.32987492</v>
+        <v>1.3399433999999999</v>
       </c>
       <c r="V192">
-        <v>1.32987492</v>
+        <v>1.3399433999999999</v>
       </c>
       <c r="W192">
-        <v>1.32987492</v>
+        <v>1.3399433999999999</v>
       </c>
       <c r="X192">
-        <v>1.32987492</v>
+        <v>1.3399433999999999</v>
       </c>
       <c r="Y192">
-        <v>1.32987492</v>
+        <v>1.3399433999999999</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
@@ -18845,64 +18845,64 @@
         <v>2019</v>
       </c>
       <c r="F193">
-        <v>8.9370669999999999E-4</v>
+        <v>3.0589089999999998E-3</v>
       </c>
       <c r="G193">
-        <v>2.2110444999999999E-2</v>
+        <v>7.9635209999999998E-2</v>
       </c>
       <c r="H193">
-        <v>0.16217974800000001</v>
+        <v>0.32100869999999998</v>
       </c>
       <c r="I193">
-        <v>0.40788569200000002</v>
+        <v>0.50113339999999995</v>
       </c>
       <c r="J193">
-        <v>0.49893597899999997</v>
+        <v>0.52796650000000001</v>
       </c>
       <c r="K193">
-        <v>0.56232125600000005</v>
+        <v>0.57108369999999997</v>
       </c>
       <c r="L193">
-        <v>0.62728667100000002</v>
+        <v>0.63247880000000001</v>
       </c>
       <c r="M193">
-        <v>0.65966610000000003</v>
+        <v>0.65907899999999997</v>
       </c>
       <c r="N193">
-        <v>0.6378663</v>
+        <v>0.63750459999999998</v>
       </c>
       <c r="O193">
-        <v>0.68515749999999997</v>
+        <v>0.68483729999999998</v>
       </c>
       <c r="P193">
-        <v>0.68330869999999999</v>
+        <v>0.68296840000000003</v>
       </c>
       <c r="Q193">
-        <v>0.74324429999999997</v>
+        <v>0.74273409999999995</v>
       </c>
       <c r="R193">
-        <v>0.77703694199999995</v>
+        <v>0.7839256</v>
       </c>
       <c r="S193">
-        <v>0.90558883800000001</v>
+        <v>0.91215900000000005</v>
       </c>
       <c r="T193">
-        <v>1.082969184</v>
+        <v>1.1186624999999999</v>
       </c>
       <c r="U193">
-        <v>1.082969184</v>
+        <v>1.1186624999999999</v>
       </c>
       <c r="V193">
-        <v>1.082969184</v>
+        <v>1.1186624999999999</v>
       </c>
       <c r="W193">
-        <v>1.082969184</v>
+        <v>1.1186624999999999</v>
       </c>
       <c r="X193">
-        <v>1.082969184</v>
+        <v>1.1186624999999999</v>
       </c>
       <c r="Y193">
-        <v>1.082969184</v>
+        <v>1.1186624999999999</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
@@ -18922,64 +18922,64 @@
         <v>2020</v>
       </c>
       <c r="F194">
-        <v>3.2245005000000001E-3</v>
+        <v>1.1292649E-2</v>
       </c>
       <c r="G194">
-        <v>4.9564499999999997E-2</v>
+        <v>0.13051212000000001</v>
       </c>
       <c r="H194">
-        <v>0.32214981500000001</v>
+        <v>0.44146279999999999</v>
       </c>
       <c r="I194">
-        <v>0.50615910799999997</v>
+        <v>0.54443209999999997</v>
       </c>
       <c r="J194">
-        <v>0.608421926</v>
+        <v>0.6177859</v>
       </c>
       <c r="K194">
-        <v>0.57684528000000002</v>
+        <v>0.58182330000000004</v>
       </c>
       <c r="L194">
-        <v>0.61801269999999997</v>
+        <v>0.61766869999999996</v>
       </c>
       <c r="M194">
-        <v>0.70623579999999997</v>
+        <v>0.70604169999999999</v>
       </c>
       <c r="N194">
-        <v>0.72028669999999995</v>
+        <v>0.72016029999999998</v>
       </c>
       <c r="O194">
-        <v>0.67303999999999997</v>
+        <v>0.67294240000000005</v>
       </c>
       <c r="P194">
-        <v>0.73820149999999995</v>
+        <v>0.73808720000000005</v>
       </c>
       <c r="Q194">
-        <v>0.73878849999999996</v>
+        <v>0.73863060000000003</v>
       </c>
       <c r="R194">
-        <v>0.76823109999999994</v>
+        <v>0.7679378</v>
       </c>
       <c r="S194">
-        <v>0.81690090000000004</v>
+        <v>0.81618080000000004</v>
       </c>
       <c r="T194">
-        <v>1.000821789</v>
+        <v>1.0082736000000001</v>
       </c>
       <c r="U194">
-        <v>1.000821789</v>
+        <v>1.0082736000000001</v>
       </c>
       <c r="V194">
-        <v>1.000821789</v>
+        <v>1.0082736000000001</v>
       </c>
       <c r="W194">
-        <v>1.000821789</v>
+        <v>1.0082736000000001</v>
       </c>
       <c r="X194">
-        <v>1.000821789</v>
+        <v>1.0082736000000001</v>
       </c>
       <c r="Y194">
-        <v>1.000821789</v>
+        <v>1.0082736000000001</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
@@ -18999,64 +18999,64 @@
         <v>2021</v>
       </c>
       <c r="F195">
-        <v>2.4606393999999998E-3</v>
+        <v>1.0674196E-2</v>
       </c>
       <c r="G195">
-        <v>5.2077919E-2</v>
+        <v>0.14626861999999999</v>
       </c>
       <c r="H195">
-        <v>0.23980314</v>
+        <v>0.34844839999999999</v>
       </c>
       <c r="I195">
-        <v>0.56605185000000002</v>
+        <v>0.61329920000000004</v>
       </c>
       <c r="J195">
-        <v>0.64810193000000005</v>
+        <v>0.6575666</v>
       </c>
       <c r="K195">
-        <v>0.68611029300000004</v>
+        <v>0.69189389999999995</v>
       </c>
       <c r="L195">
-        <v>0.64503140000000003</v>
+        <v>0.64463150000000002</v>
       </c>
       <c r="M195">
-        <v>0.7080012</v>
+        <v>0.7077888</v>
       </c>
       <c r="N195">
-        <v>0.79259009999999996</v>
+        <v>0.79244150000000002</v>
       </c>
       <c r="O195">
-        <v>0.78114980000000001</v>
+        <v>0.78103160000000005</v>
       </c>
       <c r="P195">
-        <v>0.7453206</v>
+        <v>0.7452029</v>
       </c>
       <c r="Q195">
-        <v>0.82034359999999995</v>
+        <v>0.82016909999999998</v>
       </c>
       <c r="R195">
-        <v>0.78487079999999998</v>
+        <v>0.7845801</v>
       </c>
       <c r="S195">
-        <v>0.82181210000000005</v>
+        <v>0.82112759999999996</v>
       </c>
       <c r="T195">
-        <v>0.91864555199999998</v>
+        <v>0.9256818</v>
       </c>
       <c r="U195">
-        <v>0.91864555199999998</v>
+        <v>0.9256818</v>
       </c>
       <c r="V195">
-        <v>0.91864555199999998</v>
+        <v>0.9256818</v>
       </c>
       <c r="W195">
-        <v>0.91864555199999998</v>
+        <v>0.9256818</v>
       </c>
       <c r="X195">
-        <v>0.91864555199999998</v>
+        <v>0.9256818</v>
       </c>
       <c r="Y195">
-        <v>0.91864555199999998</v>
+        <v>0.9256818</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
@@ -19076,64 +19076,64 @@
         <v>2022</v>
       </c>
       <c r="F196">
-        <v>2.0431441999999998E-3</v>
+        <v>7.6449420000000001E-3</v>
       </c>
       <c r="G196">
-        <v>5.2805535000000001E-2</v>
+        <v>0.15238477</v>
       </c>
       <c r="H196">
-        <v>0.27775524000000001</v>
+        <v>0.42055809999999999</v>
       </c>
       <c r="I196">
-        <v>0.44808693599999999</v>
+        <v>0.4935349</v>
       </c>
       <c r="J196">
-        <v>0.728222068</v>
+        <v>0.74534350000000005</v>
       </c>
       <c r="K196">
-        <v>0.73373493599999995</v>
+        <v>0.73956500000000003</v>
       </c>
       <c r="L196">
-        <v>0.77023319999999995</v>
+        <v>0.76960589999999995</v>
       </c>
       <c r="M196">
-        <v>0.74186379999999996</v>
+        <v>0.74156610000000001</v>
       </c>
       <c r="N196">
-        <v>0.79770010000000002</v>
+        <v>0.79749650000000005</v>
       </c>
       <c r="O196">
-        <v>0.86294740000000003</v>
+        <v>0.86276640000000004</v>
       </c>
       <c r="P196">
-        <v>0.86844690000000002</v>
+        <v>0.86825350000000001</v>
       </c>
       <c r="Q196">
-        <v>0.83151629999999999</v>
+        <v>0.83126250000000002</v>
       </c>
       <c r="R196">
-        <v>0.87494459999999996</v>
+        <v>0.87447160000000002</v>
       </c>
       <c r="S196">
-        <v>0.83448931500000001</v>
+        <v>0.84187670000000003</v>
       </c>
       <c r="T196">
-        <v>0.91843571400000001</v>
+        <v>0.93376400000000004</v>
       </c>
       <c r="U196">
-        <v>0.91843571400000001</v>
+        <v>0.93376400000000004</v>
       </c>
       <c r="V196">
-        <v>0.91843571400000001</v>
+        <v>0.93376400000000004</v>
       </c>
       <c r="W196">
-        <v>0.91843571400000001</v>
+        <v>0.93376400000000004</v>
       </c>
       <c r="X196">
-        <v>0.91843571400000001</v>
+        <v>0.93376400000000004</v>
       </c>
       <c r="Y196">
-        <v>0.91843571400000001</v>
+        <v>0.93376400000000004</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
@@ -19153,64 +19153,64 @@
         <v>2023</v>
       </c>
       <c r="F197">
-        <v>8.7544019999999997E-4</v>
+        <v>4.6825310000000002E-3</v>
       </c>
       <c r="G197">
-        <v>2.9231136000000001E-2</v>
+        <v>9.2155760000000003E-2</v>
       </c>
       <c r="H197">
-        <v>0.23835783199999999</v>
+        <v>0.41158400000000001</v>
       </c>
       <c r="I197">
-        <v>0.47680644799999999</v>
+        <v>0.54920869999999999</v>
       </c>
       <c r="J197">
-        <v>0.53044819200000004</v>
+        <v>0.5467824</v>
       </c>
       <c r="K197">
-        <v>0.75723011100000004</v>
+        <v>0.7624959</v>
       </c>
       <c r="L197">
-        <v>0.74133843300000002</v>
+        <v>0.74793220000000005</v>
       </c>
       <c r="M197">
-        <v>0.80534019999999995</v>
+        <v>0.80486440000000004</v>
       </c>
       <c r="N197">
-        <v>0.75987769999999999</v>
+        <v>0.75959100000000002</v>
       </c>
       <c r="O197">
-        <v>0.78956729999999997</v>
+        <v>0.78932159999999996</v>
       </c>
       <c r="P197">
-        <v>0.87218209999999996</v>
+        <v>0.87189300000000003</v>
       </c>
       <c r="Q197">
-        <v>0.88081509999999996</v>
+        <v>0.88041340000000001</v>
       </c>
       <c r="R197">
-        <v>0.80624929999999995</v>
+        <v>0.80559619999999998</v>
       </c>
       <c r="S197">
-        <v>0.84570126300000004</v>
+        <v>0.85265679999999999</v>
       </c>
       <c r="T197">
-        <v>0.85639799000000005</v>
+        <v>0.86907979999999996</v>
       </c>
       <c r="U197">
-        <v>0.85639799000000005</v>
+        <v>0.86907979999999996</v>
       </c>
       <c r="V197">
-        <v>0.85639799000000005</v>
+        <v>0.86907979999999996</v>
       </c>
       <c r="W197">
-        <v>0.85639799000000005</v>
+        <v>0.86907979999999996</v>
       </c>
       <c r="X197">
-        <v>0.85639799000000005</v>
+        <v>0.86907979999999996</v>
       </c>
       <c r="Y197">
-        <v>0.85639799000000005</v>
+        <v>0.86907979999999996</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
@@ -26916,7 +26916,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:U2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27519,10 +27519,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27535,467 +27535,347 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1966</v>
+        <v>1981</v>
       </c>
       <c r="B2" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.9302527500000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1967</v>
+        <v>1982</v>
       </c>
       <c r="B3" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.7663626399999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1968</v>
+        <v>1983</v>
       </c>
       <c r="B4" s="3">
-        <v>7.7910786500000002</v>
+        <v>8.3381739100000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1969</v>
+        <v>1984</v>
       </c>
       <c r="B5" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.7257362599999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="B6" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.5189010999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1971</v>
+        <v>1986</v>
       </c>
       <c r="B7" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.7015434799999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1972</v>
+        <v>1987</v>
       </c>
       <c r="B8" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.9614065900000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1973</v>
+        <v>1988</v>
       </c>
       <c r="B9" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.54096703</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1974</v>
+        <v>1989</v>
       </c>
       <c r="B10" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.4454456499999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="B11" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.6304835200000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1976</v>
+        <v>1991</v>
       </c>
       <c r="B12" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.3921977999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="B13" s="3">
-        <v>7.7910786500000002</v>
+        <v>8.0989565199999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1978</v>
+        <v>1993</v>
       </c>
       <c r="B14" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.6743296699999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1979</v>
+        <v>1994</v>
       </c>
       <c r="B15" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.6574285700000004</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="B16" s="3">
-        <v>7.7910786500000002</v>
+        <v>7.7381758200000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1981</v>
+        <v>1996</v>
       </c>
       <c r="B17" s="3">
-        <v>7.9302527500000002</v>
+        <v>7.7203152199999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1982</v>
+        <v>1997</v>
       </c>
       <c r="B18" s="3">
-        <v>7.7663626399999997</v>
+        <v>8.1091318700000006</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1983</v>
+        <v>1998</v>
       </c>
       <c r="B19" s="3">
-        <v>8.3381739100000001</v>
+        <v>8.1201428599999996</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="B20" s="3">
-        <v>7.7257362599999997</v>
+        <v>7.33834783</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="3">
-        <v>7.5189010999999999</v>
+        <v>7.4241428599999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1986</v>
+        <v>2001</v>
       </c>
       <c r="B22" s="3">
-        <v>7.7015434799999998</v>
+        <v>7.0958131900000003</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1987</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="3">
-        <v>7.9614065900000002</v>
+        <v>7.2639239099999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="B24" s="3">
-        <v>7.54096703</v>
+        <v>7.5445054899999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="B25" s="3">
-        <v>7.4454456499999999</v>
+        <v>7.64548352</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="B26" s="3">
-        <v>7.6304835200000003</v>
+        <v>7.8828369599999997</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1991</v>
+        <v>2006</v>
       </c>
       <c r="B27" s="3">
-        <v>7.3921977999999999</v>
+        <v>7.7766813199999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="B28" s="3">
-        <v>8.0989565199999998</v>
+        <v>7.4721978</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="B29" s="3">
-        <v>7.6743296699999997</v>
+        <v>7.1410434800000004</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="B30" s="3">
-        <v>7.6574285700000004</v>
+        <v>7.20131868</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="B31" s="3">
-        <v>7.7381758200000004</v>
+        <v>7.4271111100000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="B32" s="3">
-        <v>7.7203152199999998</v>
+        <v>7.4726153799999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="B33" s="3">
-        <v>8.1091318700000006</v>
+        <v>7.2943695699999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="B34" s="3">
-        <v>8.1201428599999996</v>
+        <v>7.0181098899999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="B35" s="3">
-        <v>7.33834783</v>
+        <v>7.4749340699999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="B36" s="3">
-        <v>7.4241428599999999</v>
+        <v>7.5457142900000003</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="B37" s="3">
-        <v>7.0958131900000003</v>
+        <v>7.3323152199999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="B38" s="3">
-        <v>7.2639239099999999</v>
+        <v>7.3101318700000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="B39" s="3">
-        <v>7.5445054899999997</v>
+        <v>7.4305384600000002</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="B40" s="3">
-        <v>7.64548352</v>
+        <v>7.3799565200000004</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>7.8828369599999997</v>
+        <v>7.3799565200000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>7.7766813199999998</v>
+        <v>7.3799565200000004</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>7.4721978</v>
+        <v>7.3799565200000004</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="B44" s="3">
-        <v>7.1410434800000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2009</v>
-      </c>
-      <c r="B45" s="3">
-        <v>7.20131868</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2010</v>
-      </c>
-      <c r="B46" s="3">
-        <v>7.4271111100000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2011</v>
-      </c>
-      <c r="B47" s="3">
-        <v>7.4726153799999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2012</v>
-      </c>
-      <c r="B48" s="3">
-        <v>7.2943695699999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2013</v>
-      </c>
-      <c r="B49" s="3">
-        <v>7.0181098899999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2014</v>
-      </c>
-      <c r="B50" s="3">
-        <v>7.4749340699999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2015</v>
-      </c>
-      <c r="B51" s="3">
-        <v>7.5457142900000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2016</v>
-      </c>
-      <c r="B52" s="3">
-        <v>7.3323152199999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2017</v>
-      </c>
-      <c r="B53" s="3">
-        <v>7.3101318700000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="3">
-        <v>7.4305384600000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2019</v>
-      </c>
-      <c r="B55" s="3">
-        <v>7.3799565200000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2020</v>
-      </c>
-      <c r="B56" s="3">
-        <v>7.3799565200000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2021</v>
-      </c>
-      <c r="B57" s="3">
-        <v>7.3799565200000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2022</v>
-      </c>
-      <c r="B58" s="3">
-        <v>7.3799565200000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>2023</v>
-      </c>
-      <c r="B59" s="3">
         <v>7.3799565200000004</v>
       </c>
     </row>
@@ -32221,7 +32101,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32283,7 +32163,7 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -35346,7 +35226,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35489,7 +35369,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -35571,12 +35451,6 @@
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>7.5499999999999998E-2</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -35601,7 +35475,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -35622,7 +35496,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -35644,12 +35518,6 @@
       </c>
       <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>7.5499999999999998E-2</v>
       </c>
       <c r="T4">
         <v>0</v>

--- a/data/hake_input_yr24_age1srv.xlsx
+++ b/data/hake_input_yr24_age1srv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E92AB-9DDD-A949-B8DD-D9866576688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89365F5-6286-954A-86C0-62A8E3C78AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="8000" windowWidth="54680" windowHeight="35200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21080" yWindow="1680" windowWidth="35340" windowHeight="32160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="396">
   <si>
     <t>Number</t>
   </si>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35225,8 +35225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35481,10 +35481,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -35496,7 +35496,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -35514,7 +35514,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -45205,10 +45205,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45297,6 +45297,83 @@
       </c>
       <c r="Y1" s="1" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
